--- a/BG Done.xlsx
+++ b/BG Done.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3365" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3370" uniqueCount="92">
   <si>
     <t>Term</t>
   </si>
@@ -267,9 +267,6 @@
     <t>CD</t>
   </si>
   <si>
-    <t>ELE</t>
-  </si>
-  <si>
     <t>CS</t>
   </si>
   <si>
@@ -285,12 +282,6 @@
     <t>FV</t>
   </si>
   <si>
-    <t>BG495</t>
-  </si>
-  <si>
-    <t>BG495IP</t>
-  </si>
-  <si>
     <t>BG491</t>
   </si>
   <si>
@@ -301,6 +292,15 @@
   </si>
   <si>
     <t>1A</t>
+  </si>
+  <si>
+    <t>EL</t>
+  </si>
+  <si>
+    <t>0000</t>
+  </si>
+  <si>
+    <t>1a</t>
   </si>
 </sst>
 </file>
@@ -437,7 +437,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -500,6 +500,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -784,8 +787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N326"/>
   <sheetViews>
-    <sheetView topLeftCell="A248" workbookViewId="0">
-      <selection activeCell="O255" sqref="O255"/>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="H87" sqref="H87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -858,18 +861,18 @@
       <c r="E2" s="17"/>
       <c r="F2" s="17"/>
       <c r="G2" s="17" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H2" s="17"/>
       <c r="I2" s="17"/>
       <c r="J2" s="17" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K2" s="17"/>
       <c r="L2" s="17"/>
       <c r="M2" s="17"/>
       <c r="N2" s="18" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -3834,7 +3837,7 @@
         <v>48</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F70" s="7">
         <v>1010</v>
@@ -3876,7 +3879,7 @@
         <v>48</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F71" s="7">
         <v>1010</v>
@@ -3918,7 +3921,7 @@
         <v>48</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F72" s="7">
         <v>1010</v>
@@ -3960,7 +3963,7 @@
         <v>48</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F73" s="7">
         <v>1010</v>
@@ -4002,7 +4005,7 @@
         <v>48</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F74" s="7">
         <v>1010</v>
@@ -4044,7 +4047,7 @@
         <v>48</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F75" s="7">
         <v>1010</v>
@@ -4086,10 +4089,10 @@
         <v>48</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F76" s="7">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="G76" s="7">
         <v>1</v>
@@ -4098,7 +4101,7 @@
         <v>1</v>
       </c>
       <c r="I76" s="7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="J76" s="7" t="s">
         <v>32</v>
@@ -4128,10 +4131,10 @@
         <v>48</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F77" s="7">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="G77" s="7">
         <v>1</v>
@@ -4140,7 +4143,7 @@
         <v>1</v>
       </c>
       <c r="I77" s="7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="J77" s="7" t="s">
         <v>32</v>
@@ -4170,10 +4173,10 @@
         <v>48</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F78" s="7">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="G78" s="7">
         <v>1</v>
@@ -4182,7 +4185,7 @@
         <v>1</v>
       </c>
       <c r="I78" s="7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="J78" s="7" t="s">
         <v>32</v>
@@ -4212,10 +4215,10 @@
         <v>48</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F79" s="7">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="G79" s="11">
         <v>1</v>
@@ -4224,7 +4227,7 @@
         <v>1</v>
       </c>
       <c r="I79" s="11" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="J79" s="11" t="s">
         <v>32</v>
@@ -4422,7 +4425,7 @@
         <v>43</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F84" s="7">
         <v>1075</v>
@@ -4464,10 +4467,10 @@
         <v>43</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F85" s="7">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="G85" s="7">
         <v>1</v>
@@ -4476,7 +4479,7 @@
         <v>1</v>
       </c>
       <c r="I85" s="7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="J85" s="7" t="s">
         <v>32</v>
@@ -4506,10 +4509,10 @@
         <v>43</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F86" s="7">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="G86" s="7">
         <v>1</v>
@@ -4518,7 +4521,7 @@
         <v>1</v>
       </c>
       <c r="I86" s="7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="J86" s="7" t="s">
         <v>32</v>
@@ -4548,10 +4551,10 @@
         <v>43</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F87" s="7">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="G87" s="7">
         <v>1</v>
@@ -4560,7 +4563,7 @@
         <v>1</v>
       </c>
       <c r="I87" s="7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="J87" s="7" t="s">
         <v>32</v>
@@ -4590,10 +4593,10 @@
         <v>43</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F88" s="7">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="G88" s="7">
         <v>1</v>
@@ -4602,7 +4605,7 @@
         <v>1</v>
       </c>
       <c r="I88" s="7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="J88" s="7" t="s">
         <v>32</v>
@@ -4632,10 +4635,10 @@
         <v>43</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F89" s="7">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="G89" s="7">
         <v>1</v>
@@ -4644,7 +4647,7 @@
         <v>1</v>
       </c>
       <c r="I89" s="7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="J89" s="7" t="s">
         <v>32</v>
@@ -4674,10 +4677,10 @@
         <v>43</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F90" s="7">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="G90" s="7">
         <v>1</v>
@@ -4686,7 +4689,7 @@
         <v>1</v>
       </c>
       <c r="I90" s="7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="J90" s="7" t="s">
         <v>32</v>
@@ -4716,7 +4719,7 @@
         <v>43</v>
       </c>
       <c r="E91" s="11" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F91" s="11">
         <v>1075</v>
@@ -4758,7 +4761,7 @@
         <v>50</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F92" s="3">
         <v>1006</v>
@@ -4800,7 +4803,7 @@
         <v>50</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F93" s="7">
         <v>1006</v>
@@ -4842,7 +4845,7 @@
         <v>50</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F94" s="7">
         <v>1006</v>
@@ -4884,7 +4887,7 @@
         <v>50</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F95" s="7">
         <v>1006</v>
@@ -4926,7 +4929,7 @@
         <v>50</v>
       </c>
       <c r="E96" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F96" s="7">
         <v>1006</v>
@@ -4968,7 +4971,7 @@
         <v>50</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F97" s="7">
         <v>1006</v>
@@ -5010,7 +5013,7 @@
         <v>50</v>
       </c>
       <c r="E98" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F98" s="7">
         <v>1006</v>
@@ -5184,7 +5187,7 @@
         <v>50</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F102" s="7">
         <v>1006</v>
@@ -5226,7 +5229,7 @@
         <v>50</v>
       </c>
       <c r="E103" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F103" s="7">
         <v>1006</v>
@@ -5268,7 +5271,7 @@
         <v>50</v>
       </c>
       <c r="E104" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F104" s="7">
         <v>1006</v>
@@ -5310,7 +5313,7 @@
         <v>50</v>
       </c>
       <c r="E105" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F105" s="7">
         <v>1006</v>
@@ -5352,7 +5355,7 @@
         <v>50</v>
       </c>
       <c r="E106" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F106" s="7">
         <v>1006</v>
@@ -5394,7 +5397,7 @@
         <v>50</v>
       </c>
       <c r="E107" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F107" s="7">
         <v>1006</v>
@@ -5568,7 +5571,7 @@
         <v>54</v>
       </c>
       <c r="E111" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F111" s="3">
         <v>1013</v>
@@ -5610,7 +5613,7 @@
         <v>54</v>
       </c>
       <c r="E112" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F112" s="7">
         <v>1013</v>
@@ -5652,7 +5655,7 @@
         <v>54</v>
       </c>
       <c r="E113" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F113" s="7">
         <v>1013</v>
@@ -5694,7 +5697,7 @@
         <v>54</v>
       </c>
       <c r="E114" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F114" s="7">
         <v>1013</v>
@@ -5736,7 +5739,7 @@
         <v>54</v>
       </c>
       <c r="E115" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F115" s="7">
         <v>1013</v>
@@ -5778,7 +5781,7 @@
         <v>54</v>
       </c>
       <c r="E116" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F116" s="7">
         <v>1013</v>
@@ -5820,7 +5823,7 @@
         <v>54</v>
       </c>
       <c r="E117" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F117" s="7">
         <v>1013</v>
@@ -5862,7 +5865,7 @@
         <v>54</v>
       </c>
       <c r="E118" s="11" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F118" s="7">
         <v>1013</v>
@@ -5904,7 +5907,7 @@
         <v>56</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F119" s="3">
         <v>1038</v>
@@ -5946,7 +5949,7 @@
         <v>56</v>
       </c>
       <c r="E120" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F120" s="7">
         <v>1038</v>
@@ -5988,7 +5991,7 @@
         <v>56</v>
       </c>
       <c r="E121" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F121" s="7">
         <v>1038</v>
@@ -6030,7 +6033,7 @@
         <v>56</v>
       </c>
       <c r="E122" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F122" s="7">
         <v>1038</v>
@@ -6072,7 +6075,7 @@
         <v>56</v>
       </c>
       <c r="E123" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F123" s="7">
         <v>1038</v>
@@ -6114,7 +6117,7 @@
         <v>56</v>
       </c>
       <c r="E124" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F124" s="7">
         <v>1038</v>
@@ -6156,7 +6159,7 @@
         <v>56</v>
       </c>
       <c r="E125" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F125" s="7">
         <v>1038</v>
@@ -6198,7 +6201,7 @@
         <v>56</v>
       </c>
       <c r="E126" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F126" s="7">
         <v>1038</v>
@@ -6240,7 +6243,7 @@
         <v>56</v>
       </c>
       <c r="E127" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F127" s="7">
         <v>1038</v>
@@ -6370,7 +6373,7 @@
         <v>58</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F130" s="3">
         <v>1008</v>
@@ -6412,7 +6415,7 @@
         <v>58</v>
       </c>
       <c r="E131" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F131" s="7">
         <v>1008</v>
@@ -6454,7 +6457,7 @@
         <v>58</v>
       </c>
       <c r="E132" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F132" s="7">
         <v>1008</v>
@@ -6496,7 +6499,7 @@
         <v>58</v>
       </c>
       <c r="E133" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F133" s="7">
         <v>1008</v>
@@ -6538,7 +6541,7 @@
         <v>58</v>
       </c>
       <c r="E134" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F134" s="7">
         <v>1008</v>
@@ -6580,7 +6583,7 @@
         <v>58</v>
       </c>
       <c r="E135" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F135" s="7">
         <v>1008</v>
@@ -6622,7 +6625,7 @@
         <v>58</v>
       </c>
       <c r="E136" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F136" s="7">
         <v>1008</v>
@@ -6664,7 +6667,7 @@
         <v>58</v>
       </c>
       <c r="E137" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F137" s="7">
         <v>1008</v>
@@ -6706,7 +6709,7 @@
         <v>58</v>
       </c>
       <c r="E138" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F138" s="7">
         <v>1008</v>
@@ -6880,7 +6883,7 @@
         <v>60</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F142" s="3">
         <v>1002</v>
@@ -6922,7 +6925,7 @@
         <v>60</v>
       </c>
       <c r="E143" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F143" s="7">
         <v>1002</v>
@@ -6964,7 +6967,7 @@
         <v>60</v>
       </c>
       <c r="E144" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F144" s="7">
         <v>1002</v>
@@ -7006,7 +7009,7 @@
         <v>60</v>
       </c>
       <c r="E145" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F145" s="7">
         <v>1002</v>
@@ -7048,7 +7051,7 @@
         <v>60</v>
       </c>
       <c r="E146" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F146" s="7">
         <v>1002</v>
@@ -7090,7 +7093,7 @@
         <v>60</v>
       </c>
       <c r="E147" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F147" s="7">
         <v>1002</v>
@@ -7132,7 +7135,7 @@
         <v>60</v>
       </c>
       <c r="E148" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F148" s="7">
         <v>1002</v>
@@ -7174,7 +7177,7 @@
         <v>60</v>
       </c>
       <c r="E149" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F149" s="7">
         <v>1002</v>
@@ -7392,7 +7395,7 @@
         <v>60</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F154" s="7">
         <v>1002</v>
@@ -7434,7 +7437,7 @@
         <v>60</v>
       </c>
       <c r="E155" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F155" s="7">
         <v>1002</v>
@@ -7476,7 +7479,7 @@
         <v>60</v>
       </c>
       <c r="E156" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F156" s="7">
         <v>1002</v>
@@ -7518,7 +7521,7 @@
         <v>60</v>
       </c>
       <c r="E157" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F157" s="7">
         <v>1002</v>
@@ -7560,7 +7563,7 @@
         <v>60</v>
       </c>
       <c r="E158" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F158" s="7">
         <v>1002</v>
@@ -7690,7 +7693,7 @@
         <v>60</v>
       </c>
       <c r="E161" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F161" s="7">
         <v>1002</v>
@@ -7732,7 +7735,7 @@
         <v>60</v>
       </c>
       <c r="E162" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F162" s="7">
         <v>1002</v>
@@ -7774,7 +7777,7 @@
         <v>60</v>
       </c>
       <c r="E163" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F163" s="7">
         <v>1002</v>
@@ -7904,7 +7907,7 @@
         <v>60</v>
       </c>
       <c r="E166" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F166" s="3">
         <v>1002</v>
@@ -7946,7 +7949,7 @@
         <v>60</v>
       </c>
       <c r="E167" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F167" s="7">
         <v>1002</v>
@@ -7988,7 +7991,7 @@
         <v>60</v>
       </c>
       <c r="E168" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F168" s="7">
         <v>1002</v>
@@ -8030,7 +8033,7 @@
         <v>60</v>
       </c>
       <c r="E169" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F169" s="7">
         <v>1002</v>
@@ -8160,7 +8163,7 @@
         <v>60</v>
       </c>
       <c r="E172" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F172" s="7">
         <v>1002</v>
@@ -8202,7 +8205,7 @@
         <v>60</v>
       </c>
       <c r="E173" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F173" s="7">
         <v>1002</v>
@@ -8244,7 +8247,7 @@
         <v>60</v>
       </c>
       <c r="E174" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F174" s="7">
         <v>1002</v>
@@ -8286,7 +8289,7 @@
         <v>60</v>
       </c>
       <c r="E175" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F175" s="7">
         <v>1002</v>
@@ -8416,7 +8419,7 @@
         <v>60</v>
       </c>
       <c r="E178" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F178" s="7">
         <v>1002</v>
@@ -8458,7 +8461,7 @@
         <v>60</v>
       </c>
       <c r="E179" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F179" s="7">
         <v>1002</v>
@@ -8500,7 +8503,7 @@
         <v>60</v>
       </c>
       <c r="E180" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F180" s="7">
         <v>1002</v>
@@ -8542,7 +8545,7 @@
         <v>60</v>
       </c>
       <c r="E181" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F181" s="7">
         <v>1002</v>
@@ -8584,7 +8587,7 @@
         <v>60</v>
       </c>
       <c r="E182" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F182" s="7">
         <v>1002</v>
@@ -8626,7 +8629,7 @@
         <v>60</v>
       </c>
       <c r="E183" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F183" s="7">
         <v>1002</v>
@@ -8668,7 +8671,7 @@
         <v>60</v>
       </c>
       <c r="E184" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F184" s="7">
         <v>1002</v>
@@ -8710,7 +8713,7 @@
         <v>60</v>
       </c>
       <c r="E185" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F185" s="7">
         <v>1002</v>
@@ -8752,7 +8755,7 @@
         <v>60</v>
       </c>
       <c r="E186" s="11" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F186" s="7">
         <v>1002</v>
@@ -8794,7 +8797,7 @@
         <v>61</v>
       </c>
       <c r="E187" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F187" s="3">
         <v>1015</v>
@@ -8836,7 +8839,7 @@
         <v>61</v>
       </c>
       <c r="E188" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F188" s="7">
         <v>1015</v>
@@ -8878,7 +8881,7 @@
         <v>61</v>
       </c>
       <c r="E189" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F189" s="7">
         <v>1015</v>
@@ -8920,7 +8923,7 @@
         <v>61</v>
       </c>
       <c r="E190" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F190" s="7">
         <v>1015</v>
@@ -8962,7 +8965,7 @@
         <v>61</v>
       </c>
       <c r="E191" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F191" s="7">
         <v>1015</v>
@@ -9004,7 +9007,7 @@
         <v>61</v>
       </c>
       <c r="E192" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F192" s="7">
         <v>1015</v>
@@ -9046,7 +9049,7 @@
         <v>61</v>
       </c>
       <c r="E193" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F193" s="7">
         <v>1015</v>
@@ -9088,7 +9091,7 @@
         <v>61</v>
       </c>
       <c r="E194" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F194" s="7">
         <v>1015</v>
@@ -9438,7 +9441,7 @@
         <v>64</v>
       </c>
       <c r="E202" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F202" s="7">
         <v>1083</v>
@@ -9480,7 +9483,7 @@
         <v>64</v>
       </c>
       <c r="E203" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F203" s="7">
         <v>1083</v>
@@ -9522,7 +9525,7 @@
         <v>64</v>
       </c>
       <c r="E204" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F204" s="7">
         <v>1083</v>
@@ -9564,7 +9567,7 @@
         <v>64</v>
       </c>
       <c r="E205" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F205" s="7">
         <v>1083</v>
@@ -9606,7 +9609,7 @@
         <v>64</v>
       </c>
       <c r="E206" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F206" s="7">
         <v>1083</v>
@@ -9648,7 +9651,7 @@
         <v>64</v>
       </c>
       <c r="E207" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F207" s="7">
         <v>1083</v>
@@ -9690,7 +9693,7 @@
         <v>64</v>
       </c>
       <c r="E208" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F208" s="7">
         <v>1083</v>
@@ -9732,7 +9735,7 @@
         <v>64</v>
       </c>
       <c r="E209" s="11" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F209" s="7">
         <v>1083</v>
@@ -9774,7 +9777,7 @@
         <v>64</v>
       </c>
       <c r="E210" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F210" s="3">
         <v>1083</v>
@@ -9816,7 +9819,7 @@
         <v>64</v>
       </c>
       <c r="E211" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F211" s="7">
         <v>1083</v>
@@ -9858,7 +9861,7 @@
         <v>64</v>
       </c>
       <c r="E212" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F212" s="7">
         <v>1083</v>
@@ -9900,7 +9903,7 @@
         <v>64</v>
       </c>
       <c r="E213" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F213" s="7">
         <v>1083</v>
@@ -9942,7 +9945,7 @@
         <v>64</v>
       </c>
       <c r="E214" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F214" s="7">
         <v>1083</v>
@@ -9984,7 +9987,7 @@
         <v>64</v>
       </c>
       <c r="E215" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F215" s="7">
         <v>1083</v>
@@ -10026,7 +10029,7 @@
         <v>64</v>
       </c>
       <c r="E216" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F216" s="7">
         <v>1083</v>
@@ -10068,7 +10071,7 @@
         <v>64</v>
       </c>
       <c r="E217" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F217" s="7">
         <v>1083</v>
@@ -10368,7 +10371,7 @@
         <v>66</v>
       </c>
       <c r="E224" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F224" s="7">
         <v>1016</v>
@@ -10410,7 +10413,7 @@
         <v>66</v>
       </c>
       <c r="E225" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F225" s="7">
         <v>1016</v>
@@ -10452,7 +10455,7 @@
         <v>66</v>
       </c>
       <c r="E226" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F226" s="7">
         <v>1016</v>
@@ -10494,7 +10497,7 @@
         <v>66</v>
       </c>
       <c r="E227" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F227" s="7">
         <v>1016</v>
@@ -10536,7 +10539,7 @@
         <v>66</v>
       </c>
       <c r="E228" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F228" s="7">
         <v>1016</v>
@@ -10578,7 +10581,7 @@
         <v>66</v>
       </c>
       <c r="E229" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F229" s="7">
         <v>1016</v>
@@ -10620,7 +10623,7 @@
         <v>66</v>
       </c>
       <c r="E230" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F230" s="7">
         <v>1016</v>
@@ -10662,7 +10665,7 @@
         <v>66</v>
       </c>
       <c r="E231" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F231" s="7">
         <v>1016</v>
@@ -10704,7 +10707,7 @@
         <v>66</v>
       </c>
       <c r="E232" s="11" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F232" s="7">
         <v>1016</v>
@@ -13156,7 +13159,7 @@
         <v>75</v>
       </c>
       <c r="E288" s="7" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="F288" s="7">
         <v>6666</v>
@@ -13200,7 +13203,7 @@
         <v>75</v>
       </c>
       <c r="E289" s="7" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="F289" s="7">
         <v>6666</v>
@@ -13244,7 +13247,7 @@
         <v>75</v>
       </c>
       <c r="E290" s="11" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="F290" s="11">
         <v>6666</v>
@@ -13288,7 +13291,7 @@
         <v>75</v>
       </c>
       <c r="E291" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F291" s="3">
         <v>2500</v>
@@ -13332,7 +13335,7 @@
         <v>75</v>
       </c>
       <c r="E292" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F292" s="7">
         <v>2500</v>
@@ -13376,7 +13379,7 @@
         <v>75</v>
       </c>
       <c r="E293" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F293" s="7">
         <v>2500</v>
@@ -13420,7 +13423,7 @@
         <v>75</v>
       </c>
       <c r="E294" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F294" s="7">
         <v>2300</v>
@@ -13464,7 +13467,7 @@
         <v>75</v>
       </c>
       <c r="E295" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F295" s="7">
         <v>2300</v>
@@ -13508,7 +13511,7 @@
         <v>75</v>
       </c>
       <c r="E296" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F296" s="7">
         <v>2300</v>
@@ -13552,7 +13555,7 @@
         <v>75</v>
       </c>
       <c r="E297" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F297" s="7">
         <v>1121</v>
@@ -13596,7 +13599,7 @@
         <v>75</v>
       </c>
       <c r="E298" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F298" s="7">
         <v>1121</v>
@@ -13640,7 +13643,7 @@
         <v>75</v>
       </c>
       <c r="E299" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F299" s="7">
         <v>1121</v>
@@ -13684,7 +13687,7 @@
         <v>75</v>
       </c>
       <c r="E300" s="7" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="F300" s="7">
         <v>6666</v>
@@ -13728,7 +13731,7 @@
         <v>75</v>
       </c>
       <c r="E301" s="7" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="F301" s="7">
         <v>6666</v>
@@ -13772,7 +13775,7 @@
         <v>75</v>
       </c>
       <c r="E302" s="7" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="F302" s="7">
         <v>6666</v>
@@ -13816,7 +13819,7 @@
         <v>75</v>
       </c>
       <c r="E303" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F303" s="7">
         <v>2220</v>
@@ -13860,7 +13863,7 @@
         <v>75</v>
       </c>
       <c r="E304" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F304" s="7">
         <v>2220</v>
@@ -14080,7 +14083,7 @@
         <v>75</v>
       </c>
       <c r="E309" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F309" s="7">
         <v>2110</v>
@@ -14124,7 +14127,7 @@
         <v>75</v>
       </c>
       <c r="E310" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F310" s="11">
         <v>2110</v>
@@ -14865,10 +14868,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N202"/>
+  <dimension ref="A1:N203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="H74" sqref="H74"/>
+    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
+      <selection activeCell="J201" sqref="J201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14932,88 +14935,57 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="F2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J2" t="s">
+        <v>91</v>
+      </c>
+      <c r="N2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>1171</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="B3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F3" s="3">
         <v>1100</v>
       </c>
-      <c r="G2" s="3">
-        <v>1</v>
-      </c>
-      <c r="H2" s="3">
-        <v>1</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" s="3" t="s">
+      <c r="G3" s="3">
+        <v>1</v>
+      </c>
+      <c r="H3" s="3">
+        <v>1</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="4">
+      <c r="L3" s="4">
         <v>0.35416666666666669</v>
       </c>
-      <c r="M2" s="4">
+      <c r="M3" s="4">
         <v>0.47916666666666669</v>
       </c>
-      <c r="N2" s="5"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
-        <v>1171</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="7">
-        <v>1060</v>
-      </c>
-      <c r="G3" s="7">
-        <v>1</v>
-      </c>
-      <c r="H3" s="7">
-        <v>1</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3" s="8">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="M3" s="8">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="N3" s="9"/>
+      <c r="N3" s="5"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
@@ -15029,10 +15001,10 @@
         <v>43</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F4" s="7">
-        <v>2160</v>
+        <v>1060</v>
       </c>
       <c r="G4" s="7">
         <v>1</v>
@@ -15044,16 +15016,16 @@
         <v>24</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="L4" s="8">
         <v>0.35416666666666669</v>
       </c>
       <c r="M4" s="8">
-        <v>0.52083333333333337</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="N4" s="9"/>
     </row>
@@ -15071,10 +15043,10 @@
         <v>43</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7">
-        <v>1101</v>
+        <v>2160</v>
       </c>
       <c r="G5" s="7">
         <v>1</v>
@@ -15113,10 +15085,10 @@
         <v>43</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>90</v>
+        <v>46</v>
       </c>
       <c r="F6" s="7">
-        <v>1075</v>
+        <v>1101</v>
       </c>
       <c r="G6" s="7">
         <v>1</v>
@@ -15125,19 +15097,19 @@
         <v>1</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>32</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="L6" s="8">
-        <v>0.33333333333333331</v>
+        <v>0.35416666666666669</v>
       </c>
       <c r="M6" s="8">
-        <v>0.5</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="N6" s="9"/>
     </row>
@@ -15155,10 +15127,10 @@
         <v>43</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F7" s="7">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="G7" s="7">
         <v>1</v>
@@ -15167,7 +15139,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>32</v>
@@ -15176,10 +15148,10 @@
         <v>25</v>
       </c>
       <c r="L7" s="8">
-        <v>0.52083333333333337</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="M7" s="8">
-        <v>0.64583333333333337</v>
+        <v>0.5</v>
       </c>
       <c r="N7" s="9"/>
     </row>
@@ -15197,10 +15169,10 @@
         <v>43</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F8" s="7">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="G8" s="7">
         <v>1</v>
@@ -15209,19 +15181,19 @@
         <v>1</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>32</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L8" s="8">
-        <v>0.33333333333333331</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="M8" s="8">
-        <v>0.5</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="N8" s="9"/>
     </row>
@@ -15239,10 +15211,10 @@
         <v>43</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F9" s="7">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="G9" s="7">
         <v>1</v>
@@ -15251,7 +15223,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>32</v>
@@ -15260,10 +15232,10 @@
         <v>20</v>
       </c>
       <c r="L9" s="8">
-        <v>0.52083333333333337</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="M9" s="8">
-        <v>0.64583333333333337</v>
+        <v>0.5</v>
       </c>
       <c r="N9" s="9"/>
     </row>
@@ -15281,10 +15253,10 @@
         <v>43</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F10" s="7">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="G10" s="7">
         <v>1</v>
@@ -15293,19 +15265,19 @@
         <v>1</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>32</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="L10" s="8">
-        <v>0.33333333333333331</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="M10" s="8">
-        <v>0.5</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="N10" s="9"/>
     </row>
@@ -15323,10 +15295,10 @@
         <v>43</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F11" s="7">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="G11" s="7">
         <v>1</v>
@@ -15335,7 +15307,7 @@
         <v>1</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>32</v>
@@ -15344,102 +15316,102 @@
         <v>26</v>
       </c>
       <c r="L11" s="8">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="M11" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="N11" s="9"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>1171</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F12" s="7">
+        <v>1076</v>
+      </c>
+      <c r="G12" s="7">
+        <v>1</v>
+      </c>
+      <c r="H12" s="7">
+        <v>1</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L12" s="8">
         <v>0.52083333333333337</v>
       </c>
-      <c r="M11" s="8">
+      <c r="M12" s="8">
         <v>0.64583333333333337</v>
       </c>
-      <c r="N11" s="9"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="10">
+      <c r="N12" s="9"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="10">
         <v>1171</v>
       </c>
-      <c r="B12" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="11" t="s">
+      <c r="B13" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D13" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="F12" s="11">
+      <c r="E13" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="F13" s="11">
         <v>1075</v>
       </c>
-      <c r="G12" s="11">
-        <v>1</v>
-      </c>
-      <c r="H12" s="11">
-        <v>1</v>
-      </c>
-      <c r="I12" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="J12" s="11" t="s">
+      <c r="G13" s="11">
+        <v>1</v>
+      </c>
+      <c r="H13" s="11">
+        <v>1</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="K12" s="11" t="s">
+      <c r="K13" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="L12" s="12">
+      <c r="L13" s="12">
         <v>0.52083333333333337</v>
       </c>
-      <c r="M12" s="12">
+      <c r="M13" s="12">
         <v>0.64583333333333337</v>
       </c>
-      <c r="N12" s="13"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+      <c r="N13" s="13"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
         <v>1171</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="F13" s="3">
-        <v>1010</v>
-      </c>
-      <c r="G13" s="3">
-        <v>1</v>
-      </c>
-      <c r="H13" s="3">
-        <v>1</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L13" s="4">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="M13" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="N13" s="5"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
-        <v>1171</v>
-      </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="14" t="s">
@@ -15448,34 +15420,34 @@
       <c r="D14" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="F14" s="7">
+      <c r="E14" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="3">
         <v>1010</v>
       </c>
-      <c r="G14" s="7">
-        <v>1</v>
-      </c>
-      <c r="H14" s="7">
-        <v>1</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="G14" s="3">
+        <v>1</v>
+      </c>
+      <c r="H14" s="3">
+        <v>1</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L14" s="8">
-        <v>0.375</v>
-      </c>
-      <c r="M14" s="8">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="N14" s="9"/>
+      <c r="K14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14" s="4">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="M14" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="N14" s="5"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
@@ -15491,7 +15463,7 @@
         <v>48</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F15" s="7">
         <v>1010</v>
@@ -15503,19 +15475,19 @@
         <v>1</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>32</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="L15" s="8">
-        <v>0.54166666666666663</v>
+        <v>0.375</v>
       </c>
       <c r="M15" s="8">
-        <v>0.64583333333333337</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="N15" s="9"/>
     </row>
@@ -15533,10 +15505,10 @@
         <v>48</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F16" s="7">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="G16" s="7">
         <v>1</v>
@@ -15545,19 +15517,19 @@
         <v>1</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>32</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="L16" s="8">
-        <v>0.3125</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="M16" s="8">
-        <v>0.5625</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="N16" s="9"/>
     </row>
@@ -15575,10 +15547,10 @@
         <v>48</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F17" s="7">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="G17" s="7">
         <v>1</v>
@@ -15587,13 +15559,13 @@
         <v>1</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>32</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L17" s="8">
         <v>0.3125</v>
@@ -15617,10 +15589,10 @@
         <v>48</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F18" s="7">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="G18" s="7">
         <v>1</v>
@@ -15629,13 +15601,13 @@
         <v>1</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>32</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="L18" s="8">
         <v>0.3125</v>
@@ -15659,10 +15631,10 @@
         <v>48</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F19" s="7">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="G19" s="7">
         <v>1</v>
@@ -15677,13 +15649,13 @@
         <v>32</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L19" s="8">
-        <v>0.57291666666666663</v>
+        <v>0.3125</v>
       </c>
       <c r="M19" s="8">
-        <v>0.63888888888888895</v>
+        <v>0.5625</v>
       </c>
       <c r="N19" s="9"/>
     </row>
@@ -15701,7 +15673,7 @@
         <v>48</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F20" s="7">
         <v>1010</v>
@@ -15719,7 +15691,7 @@
         <v>32</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L20" s="8">
         <v>0.57291666666666663</v>
@@ -15730,96 +15702,94 @@
       <c r="N20" s="9"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="10">
+      <c r="A21" s="6">
         <v>1171</v>
       </c>
-      <c r="B21" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="11" t="s">
+      <c r="B21" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="E21" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="F21" s="11">
+      <c r="E21" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F21" s="7">
         <v>1010</v>
       </c>
-      <c r="G21" s="11">
-        <v>1</v>
-      </c>
-      <c r="H21" s="11">
-        <v>1</v>
-      </c>
-      <c r="I21" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="J21" s="11" t="s">
+      <c r="G21" s="7">
+        <v>1</v>
+      </c>
+      <c r="H21" s="7">
+        <v>1</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J21" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="K21" s="11" t="s">
+      <c r="K21" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L21" s="8">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="M21" s="8">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="N21" s="9"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="10">
+        <v>1171</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="F22" s="11">
+        <v>1010</v>
+      </c>
+      <c r="G22" s="11">
+        <v>1</v>
+      </c>
+      <c r="H22" s="11">
+        <v>1</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J22" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="K22" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="L21" s="12">
+      <c r="L22" s="12">
         <v>0.57291666666666663</v>
       </c>
-      <c r="M21" s="12">
+      <c r="M22" s="12">
         <v>0.63888888888888895</v>
       </c>
-      <c r="N21" s="13"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
+      <c r="N22" s="13"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
         <v>1171</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F22" s="3">
-        <v>1041</v>
-      </c>
-      <c r="G22" s="3">
-        <v>1</v>
-      </c>
-      <c r="H22" s="3">
-        <v>1</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J22" s="3">
-        <v>2</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L22" s="4">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="M22" s="4">
-        <v>0.3888888888888889</v>
-      </c>
-      <c r="N22" s="5">
-        <v>20041065</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="6">
-        <v>1171</v>
-      </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C23" s="7" t="s">
@@ -15828,34 +15798,34 @@
       <c r="D23" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F23" s="3">
         <v>1041</v>
       </c>
-      <c r="G23" s="7">
-        <v>1</v>
-      </c>
-      <c r="H23" s="7">
-        <v>1</v>
-      </c>
-      <c r="I23" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J23" s="7">
+      <c r="G23" s="3">
+        <v>1</v>
+      </c>
+      <c r="H23" s="3">
+        <v>1</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J23" s="3">
         <v>2</v>
       </c>
-      <c r="K23" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L23" s="8">
-        <v>0.52777777777777779</v>
-      </c>
-      <c r="M23" s="8">
-        <v>0.5625</v>
-      </c>
-      <c r="N23" s="9">
+      <c r="K23" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L23" s="4">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="M23" s="4">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="N23" s="5">
         <v>20041065</v>
       </c>
     </row>
@@ -15891,13 +15861,13 @@
         <v>2</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L24" s="8">
-        <v>0.35416666666666669</v>
+        <v>0.52777777777777779</v>
       </c>
       <c r="M24" s="8">
-        <v>0.3888888888888889</v>
+        <v>0.5625</v>
       </c>
       <c r="N24" s="9">
         <v>20041065</v>
@@ -15935,13 +15905,13 @@
         <v>2</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="L25" s="8">
-        <v>0.56944444444444442</v>
+        <v>0.35416666666666669</v>
       </c>
       <c r="M25" s="8">
-        <v>0.60416666666666663</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="N25" s="9">
         <v>20041065</v>
@@ -15979,13 +15949,13 @@
         <v>2</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="L26" s="8">
-        <v>0.39583333333333331</v>
+        <v>0.56944444444444442</v>
       </c>
       <c r="M26" s="8">
-        <v>0.43055555555555558</v>
+        <v>0.60416666666666663</v>
       </c>
       <c r="N26" s="9">
         <v>20041065</v>
@@ -16005,10 +15975,10 @@
         <v>36</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="F27" s="7">
-        <v>1061</v>
+        <v>1041</v>
       </c>
       <c r="G27" s="7">
         <v>1</v>
@@ -16023,7 +15993,7 @@
         <v>2</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="L27" s="8">
         <v>0.39583333333333331</v>
@@ -16032,7 +16002,7 @@
         <v>0.43055555555555558</v>
       </c>
       <c r="N27" s="9">
-        <v>195001507</v>
+        <v>20041065</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
@@ -16067,13 +16037,13 @@
         <v>2</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="L28" s="8">
-        <v>0.61111111111111105</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="M28" s="8">
-        <v>0.66666666666666663</v>
+        <v>0.43055555555555558</v>
       </c>
       <c r="N28" s="9">
         <v>195001507</v>
@@ -16111,7 +16081,7 @@
         <v>2</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L29" s="8">
         <v>0.61111111111111105</v>
@@ -16155,13 +16125,13 @@
         <v>2</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="L30" s="8">
-        <v>0.35416666666666669</v>
+        <v>0.61111111111111105</v>
       </c>
       <c r="M30" s="8">
-        <v>0.3888888888888889</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="N30" s="9">
         <v>195001507</v>
@@ -16181,10 +16151,10 @@
         <v>36</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="F31" s="7">
-        <v>1021</v>
+        <v>1061</v>
       </c>
       <c r="G31" s="7">
         <v>1</v>
@@ -16199,16 +16169,16 @@
         <v>2</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="L31" s="8">
-        <v>0.44444444444444442</v>
+        <v>0.35416666666666669</v>
       </c>
       <c r="M31" s="8">
-        <v>0.47916666666666669</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="N31" s="9">
-        <v>20041065</v>
+        <v>195001507</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
@@ -16243,13 +16213,13 @@
         <v>2</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="L32" s="8">
-        <v>0.35416666666666669</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="M32" s="8">
-        <v>0.3888888888888889</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="N32" s="9">
         <v>20041065</v>
@@ -16287,13 +16257,13 @@
         <v>2</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L33" s="8">
-        <v>0.39583333333333331</v>
+        <v>0.35416666666666669</v>
       </c>
       <c r="M33" s="8">
-        <v>0.43055555555555558</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="N33" s="9">
         <v>20041065</v>
@@ -16331,13 +16301,13 @@
         <v>2</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="L34" s="8">
-        <v>0.35416666666666669</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="M34" s="8">
-        <v>0.39583333333333331</v>
+        <v>0.43055555555555558</v>
       </c>
       <c r="N34" s="9">
         <v>20041065</v>
@@ -16369,19 +16339,19 @@
         <v>1</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="J35" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="L35" s="8">
-        <v>0.61111111111111105</v>
+        <v>0.35416666666666669</v>
       </c>
       <c r="M35" s="8">
-        <v>0.64583333333333337</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="N35" s="9">
         <v>20041065</v>
@@ -16401,10 +16371,10 @@
         <v>36</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F36" s="7">
-        <v>1031</v>
+        <v>1021</v>
       </c>
       <c r="G36" s="7">
         <v>1</v>
@@ -16413,19 +16383,19 @@
         <v>1</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="J36" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="L36" s="8">
-        <v>0.4861111111111111</v>
+        <v>0.61111111111111105</v>
       </c>
       <c r="M36" s="8">
-        <v>0.52083333333333337</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="N36" s="9">
         <v>20041065</v>
@@ -16463,13 +16433,13 @@
         <v>2</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="L37" s="8">
-        <v>0.44444444444444442</v>
+        <v>0.4861111111111111</v>
       </c>
       <c r="M37" s="8">
-        <v>0.47916666666666669</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="N37" s="9">
         <v>20041065</v>
@@ -16507,7 +16477,7 @@
         <v>2</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L38" s="8">
         <v>0.44444444444444442</v>
@@ -16545,19 +16515,19 @@
         <v>1</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="J39" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="L39" s="8">
-        <v>0.56944444444444442</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="M39" s="8">
-        <v>0.60416666666666663</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="N39" s="9">
         <v>20041065</v>
@@ -16577,10 +16547,10 @@
         <v>36</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F40" s="7">
-        <v>1051</v>
+        <v>1031</v>
       </c>
       <c r="G40" s="7">
         <v>1</v>
@@ -16589,13 +16559,13 @@
         <v>1</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="J40" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="L40" s="8">
         <v>0.56944444444444442</v>
@@ -16639,13 +16609,13 @@
         <v>2</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="L41" s="8">
-        <v>0.39583333333333331</v>
+        <v>0.56944444444444442</v>
       </c>
       <c r="M41" s="8">
-        <v>0.43055555555555558</v>
+        <v>0.60416666666666663</v>
       </c>
       <c r="N41" s="9">
         <v>20041065</v>
@@ -16683,13 +16653,13 @@
         <v>2</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L42" s="8">
-        <v>0.56944444444444442</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="M42" s="8">
-        <v>0.60416666666666663</v>
+        <v>0.43055555555555558</v>
       </c>
       <c r="N42" s="9">
         <v>20041065</v>
@@ -16721,7 +16691,7 @@
         <v>1</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="J43" s="7">
         <v>2</v>
@@ -16730,10 +16700,10 @@
         <v>20</v>
       </c>
       <c r="L43" s="8">
-        <v>0.61111111111111105</v>
+        <v>0.56944444444444442</v>
       </c>
       <c r="M43" s="8">
-        <v>0.64583333333333337</v>
+        <v>0.60416666666666663</v>
       </c>
       <c r="N43" s="9">
         <v>20041065</v>
@@ -16765,115 +16735,117 @@
         <v>1</v>
       </c>
       <c r="I44" s="7" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="J44" s="7">
         <v>2</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="L44" s="8">
-        <v>0.39583333333333331</v>
+        <v>0.61111111111111105</v>
       </c>
       <c r="M44" s="8">
-        <v>0.43055555555555558</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="N44" s="9">
         <v>20041065</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="10">
+      <c r="A45" s="6">
         <v>1171</v>
       </c>
-      <c r="B45" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C45" s="11" t="s">
+      <c r="B45" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D45" s="11" t="s">
+      <c r="D45" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E45" s="11" t="s">
+      <c r="E45" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F45" s="7">
+        <v>1051</v>
+      </c>
+      <c r="G45" s="7">
+        <v>1</v>
+      </c>
+      <c r="H45" s="7">
+        <v>1</v>
+      </c>
+      <c r="I45" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J45" s="7">
+        <v>2</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L45" s="8">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="M45" s="8">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="N45" s="9">
+        <v>20041065</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" s="10">
+        <v>1171</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E46" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F45" s="11">
+      <c r="F46" s="11">
         <v>1230</v>
       </c>
-      <c r="G45" s="11">
-        <v>1</v>
-      </c>
-      <c r="H45" s="11">
-        <v>1</v>
-      </c>
-      <c r="I45" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="J45" s="11">
+      <c r="G46" s="11">
+        <v>1</v>
+      </c>
+      <c r="H46" s="11">
+        <v>1</v>
+      </c>
+      <c r="I46" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J46" s="11">
         <v>2</v>
       </c>
-      <c r="K45" s="11" t="s">
+      <c r="K46" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="L45" s="12">
+      <c r="L46" s="12">
         <v>0.56944444444444442</v>
       </c>
-      <c r="M45" s="12">
+      <c r="M46" s="12">
         <v>0.60416666666666663</v>
       </c>
-      <c r="N45" s="13">
+      <c r="N46" s="13">
         <v>195001507</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="2">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
         <v>1171</v>
       </c>
-      <c r="B46" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="F46" s="3">
-        <v>1038</v>
-      </c>
-      <c r="G46" s="3">
-        <v>1</v>
-      </c>
-      <c r="H46" s="3">
-        <v>1</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J46" s="3">
-        <v>6</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L46" s="4">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="M46" s="4">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="N46" s="5"/>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="6">
-        <v>1171</v>
-      </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C47" s="7" t="s">
@@ -16882,34 +16854,34 @@
       <c r="D47" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="E47" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="F47" s="7">
+      <c r="E47" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F47" s="3">
         <v>1038</v>
       </c>
-      <c r="G47" s="7">
-        <v>1</v>
-      </c>
-      <c r="H47" s="7">
-        <v>1</v>
-      </c>
-      <c r="I47" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J47" s="7">
+      <c r="G47" s="3">
+        <v>1</v>
+      </c>
+      <c r="H47" s="3">
+        <v>1</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J47" s="3">
         <v>6</v>
       </c>
-      <c r="K47" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L47" s="8">
+      <c r="K47" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L47" s="4">
         <v>0.35416666666666669</v>
       </c>
-      <c r="M47" s="8">
+      <c r="M47" s="4">
         <v>0.47916666666666669</v>
       </c>
-      <c r="N47" s="9"/>
+      <c r="N47" s="5"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
@@ -16925,7 +16897,7 @@
         <v>56</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F48" s="7">
         <v>1038</v>
@@ -16943,7 +16915,7 @@
         <v>6</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L48" s="8">
         <v>0.35416666666666669</v>
@@ -16967,7 +16939,7 @@
         <v>56</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F49" s="7">
         <v>1038</v>
@@ -16985,7 +16957,7 @@
         <v>6</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="L49" s="8">
         <v>0.35416666666666669</v>
@@ -17009,7 +16981,7 @@
         <v>56</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F50" s="7">
         <v>1038</v>
@@ -17027,7 +16999,7 @@
         <v>6</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="L50" s="8">
         <v>0.35416666666666669</v>
@@ -17051,10 +17023,10 @@
         <v>56</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="F51" s="7">
-        <v>1760</v>
+        <v>1038</v>
       </c>
       <c r="G51" s="7">
         <v>1</v>
@@ -17066,20 +17038,18 @@
         <v>24</v>
       </c>
       <c r="J51" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="L51" s="8">
-        <v>0.52083333333333337</v>
+        <v>0.35416666666666669</v>
       </c>
       <c r="M51" s="8">
-        <v>0.64583333333333337</v>
-      </c>
-      <c r="N51" s="9">
-        <v>20025983</v>
-      </c>
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="N51" s="9"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
@@ -17095,10 +17065,10 @@
         <v>56</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="F52" s="7">
-        <v>1060</v>
+        <v>1760</v>
       </c>
       <c r="G52" s="7">
         <v>1</v>
@@ -17113,16 +17083,16 @@
         <v>1</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="L52" s="8">
         <v>0.52083333333333337</v>
       </c>
       <c r="M52" s="8">
-        <v>0.5625</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="N52" s="9">
-        <v>20143883</v>
+        <v>20025983</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
@@ -17139,10 +17109,10 @@
         <v>56</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="F53" s="7">
-        <v>1160</v>
+        <v>1060</v>
       </c>
       <c r="G53" s="7">
         <v>1</v>
@@ -17154,16 +17124,16 @@
         <v>24</v>
       </c>
       <c r="J53" s="7">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="K53" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L53" s="8">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="M53" s="8">
         <v>0.5625</v>
-      </c>
-      <c r="M53" s="8">
-        <v>0.64583333333333337</v>
       </c>
       <c r="N53" s="9">
         <v>20143883</v>
@@ -17183,10 +17153,10 @@
         <v>56</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>90</v>
+        <v>44</v>
       </c>
       <c r="F54" s="7">
-        <v>1038</v>
+        <v>1160</v>
       </c>
       <c r="G54" s="7">
         <v>1</v>
@@ -17198,10 +17168,10 @@
         <v>24</v>
       </c>
       <c r="J54" s="7">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L54" s="8">
         <v>0.5625</v>
@@ -17209,7 +17179,9 @@
       <c r="M54" s="8">
         <v>0.64583333333333337</v>
       </c>
-      <c r="N54" s="9"/>
+      <c r="N54" s="9">
+        <v>20143883</v>
+      </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
@@ -17225,7 +17197,7 @@
         <v>56</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F55" s="7">
         <v>1038</v>
@@ -17243,7 +17215,7 @@
         <v>6</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="L55" s="8">
         <v>0.5625</v>
@@ -17254,130 +17226,130 @@
       <c r="N55" s="9"/>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A56" s="10">
+      <c r="A56" s="6">
         <v>1171</v>
       </c>
-      <c r="B56" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C56" s="11" t="s">
+      <c r="B56" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C56" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D56" s="11" t="s">
+      <c r="D56" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="E56" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="F56" s="11">
+      <c r="E56" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F56" s="7">
         <v>1038</v>
       </c>
-      <c r="G56" s="11">
-        <v>1</v>
-      </c>
-      <c r="H56" s="11">
-        <v>1</v>
-      </c>
-      <c r="I56" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="J56" s="11">
+      <c r="G56" s="7">
+        <v>1</v>
+      </c>
+      <c r="H56" s="7">
+        <v>1</v>
+      </c>
+      <c r="I56" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J56" s="7">
         <v>6</v>
       </c>
-      <c r="K56" s="11" t="s">
+      <c r="K56" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L56" s="8">
+        <v>0.5625</v>
+      </c>
+      <c r="M56" s="8">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="N56" s="9"/>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A57" s="10">
+        <v>1171</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E57" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="F57" s="11">
+        <v>1038</v>
+      </c>
+      <c r="G57" s="11">
+        <v>1</v>
+      </c>
+      <c r="H57" s="11">
+        <v>1</v>
+      </c>
+      <c r="I57" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J57" s="11">
+        <v>6</v>
+      </c>
+      <c r="K57" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="L56" s="12">
+      <c r="L57" s="12">
         <v>0.5625</v>
       </c>
-      <c r="M56" s="12">
+      <c r="M57" s="12">
         <v>0.64583333333333337</v>
       </c>
-      <c r="N56" s="13"/>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A57" s="2">
+      <c r="N57" s="13"/>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
         <v>1171</v>
       </c>
-      <c r="B57" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C57" s="3" t="s">
+      <c r="B58" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C58" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D57" s="3" t="s">
+      <c r="D58" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="F57" s="3">
+      <c r="E58" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F58" s="3">
         <v>1013</v>
       </c>
-      <c r="G57" s="3">
-        <v>1</v>
-      </c>
-      <c r="H57" s="3">
-        <v>1</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J57" s="3" t="s">
+      <c r="G58" s="3">
+        <v>1</v>
+      </c>
+      <c r="H58" s="3">
+        <v>1</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J58" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="K57" s="3" t="s">
+      <c r="K58" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L57" s="4">
+      <c r="L58" s="4">
         <v>0.33333333333333331</v>
       </c>
-      <c r="M57" s="4">
+      <c r="M58" s="4">
         <v>0.5</v>
       </c>
-      <c r="N57" s="5"/>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A58" s="6">
-        <v>1171</v>
-      </c>
-      <c r="B58" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C58" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D58" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E58" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="F58" s="7">
-        <v>1013</v>
-      </c>
-      <c r="G58" s="7">
-        <v>1</v>
-      </c>
-      <c r="H58" s="7">
-        <v>1</v>
-      </c>
-      <c r="I58" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J58" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="K58" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L58" s="8">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="M58" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="N58" s="9"/>
+      <c r="N58" s="5"/>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="6">
@@ -17393,7 +17365,7 @@
         <v>54</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F59" s="7">
         <v>1013</v>
@@ -17411,7 +17383,7 @@
         <v>32</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L59" s="8">
         <v>0.33333333333333331</v>
@@ -17435,7 +17407,7 @@
         <v>54</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F60" s="7">
         <v>1013</v>
@@ -17453,7 +17425,7 @@
         <v>32</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="L60" s="8">
         <v>0.33333333333333331</v>
@@ -17477,7 +17449,7 @@
         <v>54</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F61" s="7">
         <v>1013</v>
@@ -17495,13 +17467,13 @@
         <v>32</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="L61" s="8">
-        <v>0.52083333333333337</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="M61" s="8">
-        <v>0.66666666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="N61" s="9"/>
     </row>
@@ -17519,7 +17491,7 @@
         <v>54</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F62" s="7">
         <v>1013</v>
@@ -17537,7 +17509,7 @@
         <v>32</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="L62" s="8">
         <v>0.52083333333333337</v>
@@ -17561,7 +17533,7 @@
         <v>54</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F63" s="7">
         <v>1013</v>
@@ -17579,7 +17551,7 @@
         <v>32</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L63" s="8">
         <v>0.52083333333333337</v>
@@ -17590,130 +17562,130 @@
       <c r="N63" s="9"/>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A64" s="10">
+      <c r="A64" s="6">
         <v>1171</v>
       </c>
-      <c r="B64" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C64" s="11" t="s">
+      <c r="B64" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C64" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D64" s="11" t="s">
+      <c r="D64" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="E64" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="F64" s="11">
+      <c r="E64" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F64" s="7">
         <v>1013</v>
       </c>
-      <c r="G64" s="11">
-        <v>1</v>
-      </c>
-      <c r="H64" s="11">
-        <v>1</v>
-      </c>
-      <c r="I64" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="J64" s="11" t="s">
+      <c r="G64" s="7">
+        <v>1</v>
+      </c>
+      <c r="H64" s="7">
+        <v>1</v>
+      </c>
+      <c r="I64" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J64" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="K64" s="11" t="s">
+      <c r="K64" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L64" s="8">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="M64" s="8">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="N64" s="9"/>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A65" s="10">
+        <v>1171</v>
+      </c>
+      <c r="B65" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D65" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E65" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="F65" s="11">
+        <v>1013</v>
+      </c>
+      <c r="G65" s="11">
+        <v>1</v>
+      </c>
+      <c r="H65" s="11">
+        <v>1</v>
+      </c>
+      <c r="I65" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J65" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="K65" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="L64" s="12">
+      <c r="L65" s="12">
         <v>0.52083333333333337</v>
       </c>
-      <c r="M64" s="12">
+      <c r="M65" s="12">
         <v>0.66666666666666663</v>
       </c>
-      <c r="N64" s="13"/>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A65" s="2">
+      <c r="N65" s="13"/>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A66" s="2">
         <v>1171</v>
       </c>
-      <c r="B65" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C65" s="3" t="s">
+      <c r="B66" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C66" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D65" s="3" t="s">
+      <c r="D66" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E65" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="F65" s="7">
-        <v>1015</v>
-      </c>
-      <c r="G65" s="3">
-        <v>1</v>
-      </c>
-      <c r="H65" s="3">
-        <v>1</v>
-      </c>
-      <c r="I65" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J65" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K65" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L65" s="4">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="M65" s="4">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="N65" s="5"/>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A66" s="6">
-        <v>1171</v>
-      </c>
-      <c r="B66" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C66" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D66" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E66" s="7" t="s">
-        <v>90</v>
+      <c r="E66" s="3" t="s">
+        <v>87</v>
       </c>
       <c r="F66" s="7">
         <v>1015</v>
       </c>
-      <c r="G66" s="7">
-        <v>1</v>
-      </c>
-      <c r="H66" s="7">
-        <v>1</v>
-      </c>
-      <c r="I66" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J66" s="7" t="s">
+      <c r="G66" s="3">
+        <v>1</v>
+      </c>
+      <c r="H66" s="3">
+        <v>1</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J66" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="K66" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L66" s="8">
+      <c r="K66" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L66" s="4">
         <v>0.35416666666666669</v>
       </c>
-      <c r="M66" s="8">
+      <c r="M66" s="4">
         <v>0.47916666666666669</v>
       </c>
-      <c r="N66" s="9"/>
+      <c r="N66" s="5"/>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="6">
@@ -17729,7 +17701,7 @@
         <v>61</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F67" s="7">
         <v>1015</v>
@@ -17747,7 +17719,7 @@
         <v>32</v>
       </c>
       <c r="K67" s="7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="L67" s="8">
         <v>0.35416666666666669</v>
@@ -17771,7 +17743,7 @@
         <v>61</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F68" s="7">
         <v>1015</v>
@@ -17789,7 +17761,7 @@
         <v>32</v>
       </c>
       <c r="K68" s="7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="L68" s="8">
         <v>0.35416666666666669</v>
@@ -17813,7 +17785,7 @@
         <v>61</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F69" s="7">
         <v>1015</v>
@@ -17831,13 +17803,13 @@
         <v>32</v>
       </c>
       <c r="K69" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="L69" s="8">
-        <v>0.52083333333333337</v>
+        <v>0.35416666666666669</v>
       </c>
       <c r="M69" s="8">
-        <v>0.64583333333333337</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="N69" s="9"/>
     </row>
@@ -17855,7 +17827,7 @@
         <v>61</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F70" s="7">
         <v>1015</v>
@@ -17873,7 +17845,7 @@
         <v>32</v>
       </c>
       <c r="K70" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L70" s="8">
         <v>0.52083333333333337</v>
@@ -17897,7 +17869,7 @@
         <v>61</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F71" s="7">
         <v>1015</v>
@@ -17915,7 +17887,7 @@
         <v>32</v>
       </c>
       <c r="K71" s="7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="L71" s="8">
         <v>0.52083333333333337</v>
@@ -17939,7 +17911,7 @@
         <v>61</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F72" s="7">
         <v>1015</v>
@@ -17957,13 +17929,13 @@
         <v>32</v>
       </c>
       <c r="K72" s="7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="L72" s="8">
         <v>0.52083333333333337</v>
       </c>
       <c r="M72" s="8">
-        <v>0.60416666666666663</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="N72" s="9"/>
     </row>
@@ -17981,10 +17953,10 @@
         <v>61</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="F73" s="7">
-        <v>1760</v>
+        <v>1015</v>
       </c>
       <c r="G73" s="7">
         <v>1</v>
@@ -17995,21 +17967,19 @@
       <c r="I73" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="J73" s="7">
-        <v>21</v>
+      <c r="J73" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="K73" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="L73" s="8">
-        <v>0.35416666666666669</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="M73" s="8">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="N73" s="9">
-        <v>20021300</v>
-      </c>
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="N73" s="9"/>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="6">
@@ -18025,16 +17995,16 @@
         <v>61</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F74" s="7">
-        <v>1101</v>
+        <v>1760</v>
       </c>
       <c r="G74" s="7">
         <v>1</v>
       </c>
       <c r="H74" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I74" s="7" t="s">
         <v>24</v>
@@ -18056,134 +18026,134 @@
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A75" s="10">
+      <c r="A75" s="6">
         <v>1171</v>
       </c>
-      <c r="B75" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C75" s="11" t="s">
+      <c r="B75" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C75" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="D75" s="11" t="s">
+      <c r="D75" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="E75" s="11" t="s">
+      <c r="E75" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F75" s="7">
+        <v>1101</v>
+      </c>
+      <c r="G75" s="7">
+        <v>1</v>
+      </c>
+      <c r="H75" s="7">
+        <v>2</v>
+      </c>
+      <c r="I75" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J75" s="7">
+        <v>21</v>
+      </c>
+      <c r="K75" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L75" s="8">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="M75" s="8">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="N75" s="9">
+        <v>20021300</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A76" s="10">
+        <v>1171</v>
+      </c>
+      <c r="B76" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C76" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D76" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="E76" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="F75" s="11">
+      <c r="F76" s="11">
         <v>1340</v>
       </c>
-      <c r="G75" s="11">
-        <v>1</v>
-      </c>
-      <c r="H75" s="11">
-        <v>1</v>
-      </c>
-      <c r="I75" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="J75" s="11">
+      <c r="G76" s="11">
+        <v>1</v>
+      </c>
+      <c r="H76" s="11">
+        <v>1</v>
+      </c>
+      <c r="I76" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J76" s="11">
         <v>26</v>
       </c>
-      <c r="K75" s="11" t="s">
+      <c r="K76" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="L75" s="12">
+      <c r="L76" s="12">
         <v>0.58333333333333337</v>
       </c>
-      <c r="M75" s="12">
+      <c r="M76" s="12">
         <v>0.70833333333333337</v>
       </c>
-      <c r="N75" s="15" t="s">
+      <c r="N76" s="15" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A76" s="2">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A77" s="2">
         <v>1171</v>
       </c>
-      <c r="B76" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C76" s="3" t="s">
+      <c r="B77" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C77" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D76" s="3" t="s">
+      <c r="D77" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E76" s="3" t="s">
+      <c r="E77" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F76" s="3">
+      <c r="F77" s="3">
         <v>1270</v>
       </c>
-      <c r="G76" s="3">
-        <v>1</v>
-      </c>
-      <c r="H76" s="3">
-        <v>1</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J76" s="3">
+      <c r="G77" s="3">
+        <v>1</v>
+      </c>
+      <c r="H77" s="3">
+        <v>1</v>
+      </c>
+      <c r="I77" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J77" s="3">
         <v>111</v>
       </c>
-      <c r="K76" s="3" t="s">
+      <c r="K77" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L76" s="4">
+      <c r="L77" s="4">
         <v>0.35416666666666669</v>
       </c>
-      <c r="M76" s="4">
+      <c r="M77" s="4">
         <v>0.42708333333333331</v>
       </c>
-      <c r="N76" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A77" s="6">
-        <v>1171</v>
-      </c>
-      <c r="B77" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C77" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D77" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E77" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F77" s="7">
-        <v>1101</v>
-      </c>
-      <c r="G77" s="7">
-        <v>1</v>
-      </c>
-      <c r="H77" s="7">
-        <v>1</v>
-      </c>
-      <c r="I77" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J77" s="7">
-        <v>109</v>
-      </c>
-      <c r="K77" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L77" s="8">
-        <v>0.4375</v>
-      </c>
-      <c r="M77" s="8">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="N77" s="9" t="s">
+      <c r="N77" s="5" t="s">
         <v>51</v>
       </c>
     </row>
@@ -18201,10 +18171,10 @@
         <v>64</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>90</v>
+        <v>46</v>
       </c>
       <c r="F78" s="7">
-        <v>1083</v>
+        <v>1101</v>
       </c>
       <c r="G78" s="7">
         <v>1</v>
@@ -18216,18 +18186,20 @@
         <v>24</v>
       </c>
       <c r="J78" s="7">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="K78" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L78" s="8">
-        <v>0.5</v>
+        <v>0.4375</v>
       </c>
       <c r="M78" s="8">
-        <v>0.625</v>
-      </c>
-      <c r="N78" s="9"/>
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="N78" s="9" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" s="6">
@@ -18243,7 +18215,7 @@
         <v>64</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F79" s="7">
         <v>1083</v>
@@ -18261,13 +18233,13 @@
         <v>113</v>
       </c>
       <c r="K79" s="7" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="L79" s="8">
-        <v>0.35416666666666669</v>
+        <v>0.5</v>
       </c>
       <c r="M79" s="8">
-        <v>0.47916666666666669</v>
+        <v>0.625</v>
       </c>
       <c r="N79" s="9"/>
     </row>
@@ -18285,7 +18257,7 @@
         <v>64</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F80" s="7">
         <v>1083</v>
@@ -18303,7 +18275,7 @@
         <v>113</v>
       </c>
       <c r="K80" s="7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L80" s="8">
         <v>0.35416666666666669</v>
@@ -18327,7 +18299,7 @@
         <v>64</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F81" s="7">
         <v>1083</v>
@@ -18345,7 +18317,7 @@
         <v>113</v>
       </c>
       <c r="K81" s="7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="L81" s="8">
         <v>0.35416666666666669</v>
@@ -18369,7 +18341,7 @@
         <v>64</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F82" s="7">
         <v>1083</v>
@@ -18381,19 +18353,19 @@
         <v>1</v>
       </c>
       <c r="I82" s="7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="J82" s="7">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="K82" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L82" s="8">
-        <v>0.5</v>
+        <v>0.35416666666666669</v>
       </c>
       <c r="M82" s="8">
-        <v>0.625</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="N82" s="9"/>
     </row>
@@ -18411,10 +18383,10 @@
         <v>64</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F83" s="7">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="G83" s="7">
         <v>1</v>
@@ -18423,13 +18395,13 @@
         <v>1</v>
       </c>
       <c r="I83" s="7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="J83" s="7">
         <v>125</v>
       </c>
       <c r="K83" s="7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L83" s="8">
         <v>0.5</v>
@@ -18453,10 +18425,10 @@
         <v>64</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F84" s="7">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="G84" s="7">
         <v>1</v>
@@ -18465,19 +18437,19 @@
         <v>1</v>
       </c>
       <c r="I84" s="7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="J84" s="7">
         <v>125</v>
       </c>
       <c r="K84" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L84" s="8">
-        <v>0.35416666666666669</v>
+        <v>0.5</v>
       </c>
       <c r="M84" s="8">
-        <v>0.47916666666666669</v>
+        <v>0.625</v>
       </c>
       <c r="N84" s="9"/>
     </row>
@@ -18495,10 +18467,10 @@
         <v>64</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F85" s="7">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="G85" s="7">
         <v>1</v>
@@ -18507,7 +18479,7 @@
         <v>1</v>
       </c>
       <c r="I85" s="7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="J85" s="7">
         <v>125</v>
@@ -18516,10 +18488,10 @@
         <v>22</v>
       </c>
       <c r="L85" s="8">
-        <v>0.5</v>
+        <v>0.35416666666666669</v>
       </c>
       <c r="M85" s="8">
-        <v>0.625</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="N85" s="9"/>
     </row>
@@ -18537,10 +18509,10 @@
         <v>64</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="F86" s="7">
-        <v>1760</v>
+        <v>1084</v>
       </c>
       <c r="G86" s="7">
         <v>1</v>
@@ -18552,114 +18524,112 @@
         <v>24</v>
       </c>
       <c r="J86" s="7">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="K86" s="7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="L86" s="8">
         <v>0.5</v>
       </c>
       <c r="M86" s="8">
+        <v>0.625</v>
+      </c>
+      <c r="N86" s="9"/>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A87" s="6">
+        <v>1171</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E87" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F87" s="7">
+        <v>1760</v>
+      </c>
+      <c r="G87" s="7">
+        <v>1</v>
+      </c>
+      <c r="H87" s="7">
+        <v>1</v>
+      </c>
+      <c r="I87" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J87" s="7">
+        <v>109</v>
+      </c>
+      <c r="K87" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L87" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="M87" s="8">
         <v>0.57638888888888895</v>
       </c>
-      <c r="N86" s="9" t="s">
+      <c r="N87" s="9" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A87" s="10">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A88" s="10">
         <v>1171</v>
       </c>
-      <c r="B87" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C87" s="11" t="s">
+      <c r="B88" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C88" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="D87" s="11" t="s">
+      <c r="D88" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="E87" s="11" t="s">
+      <c r="E88" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F87" s="11">
+      <c r="F88" s="11">
         <v>1760</v>
       </c>
-      <c r="G87" s="11">
-        <v>1</v>
-      </c>
-      <c r="H87" s="11">
-        <v>1</v>
-      </c>
-      <c r="I87" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="J87" s="11">
+      <c r="G88" s="11">
+        <v>1</v>
+      </c>
+      <c r="H88" s="11">
+        <v>1</v>
+      </c>
+      <c r="I88" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J88" s="11">
         <v>111</v>
       </c>
-      <c r="K87" s="11" t="s">
+      <c r="K88" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="L87" s="12">
+      <c r="L88" s="12">
         <v>0.58333333333333337</v>
       </c>
-      <c r="M87" s="12">
+      <c r="M88" s="12">
         <v>0.625</v>
       </c>
-      <c r="N87" s="13" t="s">
+      <c r="N88" s="13" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A88" s="2">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A89" s="2">
         <v>1171</v>
       </c>
-      <c r="B88" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C88" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D88" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E88" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F88" s="3">
-        <v>1760</v>
-      </c>
-      <c r="G88" s="3">
-        <v>1</v>
-      </c>
-      <c r="H88" s="3">
-        <v>1</v>
-      </c>
-      <c r="I88" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J88" s="3">
-        <v>109</v>
-      </c>
-      <c r="K88" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L88" s="4">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="M88" s="4">
-        <v>0.42708333333333331</v>
-      </c>
-      <c r="N88" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A89" s="6">
-        <v>1171</v>
-      </c>
-      <c r="B89" s="7" t="s">
+      <c r="B89" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C89" s="7" t="s">
@@ -18668,34 +18638,34 @@
       <c r="D89" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="E89" s="7" t="s">
+      <c r="E89" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F89" s="7">
+      <c r="F89" s="3">
         <v>1760</v>
       </c>
-      <c r="G89" s="7">
-        <v>1</v>
-      </c>
-      <c r="H89" s="7">
-        <v>1</v>
-      </c>
-      <c r="I89" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J89" s="7">
-        <v>111</v>
-      </c>
-      <c r="K89" s="7" t="s">
+      <c r="G89" s="3">
+        <v>1</v>
+      </c>
+      <c r="H89" s="3">
+        <v>1</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J89" s="3">
+        <v>109</v>
+      </c>
+      <c r="K89" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L89" s="8">
-        <v>0.4375</v>
-      </c>
-      <c r="M89" s="8">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="N89" s="9" t="s">
+      <c r="L89" s="4">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="M89" s="4">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="N89" s="5" t="s">
         <v>52</v>
       </c>
     </row>
@@ -18713,10 +18683,10 @@
         <v>66</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="F90" s="7">
-        <v>1016</v>
+        <v>1760</v>
       </c>
       <c r="G90" s="7">
         <v>1</v>
@@ -18725,21 +18695,23 @@
         <v>1</v>
       </c>
       <c r="I90" s="7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="J90" s="7">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="K90" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L90" s="8">
-        <v>0.5</v>
+        <v>0.4375</v>
       </c>
       <c r="M90" s="8">
-        <v>0.625</v>
-      </c>
-      <c r="N90" s="9"/>
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="N90" s="9" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" s="6">
@@ -18755,10 +18727,10 @@
         <v>66</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F91" s="7">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="G91" s="7">
         <v>1</v>
@@ -18767,19 +18739,19 @@
         <v>1</v>
       </c>
       <c r="I91" s="7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="J91" s="7">
         <v>123</v>
       </c>
       <c r="K91" s="7" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="L91" s="8">
-        <v>0.35416666666666669</v>
+        <v>0.5</v>
       </c>
       <c r="M91" s="8">
-        <v>0.47916666666666669</v>
+        <v>0.625</v>
       </c>
       <c r="N91" s="9"/>
     </row>
@@ -18797,10 +18769,10 @@
         <v>66</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F92" s="7">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="G92" s="7">
         <v>1</v>
@@ -18809,7 +18781,7 @@
         <v>1</v>
       </c>
       <c r="I92" s="7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="J92" s="7">
         <v>123</v>
@@ -18818,10 +18790,10 @@
         <v>25</v>
       </c>
       <c r="L92" s="8">
-        <v>0.5</v>
+        <v>0.35416666666666669</v>
       </c>
       <c r="M92" s="8">
-        <v>0.625</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="N92" s="9"/>
     </row>
@@ -18839,10 +18811,10 @@
         <v>66</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F93" s="7">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="G93" s="7">
         <v>1</v>
@@ -18851,19 +18823,19 @@
         <v>1</v>
       </c>
       <c r="I93" s="7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="J93" s="7">
         <v>123</v>
       </c>
       <c r="K93" s="7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L93" s="8">
-        <v>0.35416666666666669</v>
+        <v>0.5</v>
       </c>
       <c r="M93" s="8">
-        <v>0.47916666666666669</v>
+        <v>0.625</v>
       </c>
       <c r="N93" s="9"/>
     </row>
@@ -18881,10 +18853,10 @@
         <v>66</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F94" s="7">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="G94" s="7">
         <v>1</v>
@@ -18893,13 +18865,13 @@
         <v>1</v>
       </c>
       <c r="I94" s="7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="J94" s="7">
         <v>123</v>
       </c>
       <c r="K94" s="7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="L94" s="8">
         <v>0.35416666666666669</v>
@@ -18923,10 +18895,10 @@
         <v>66</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F95" s="7">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="G95" s="7">
         <v>1</v>
@@ -18935,19 +18907,19 @@
         <v>1</v>
       </c>
       <c r="I95" s="7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="J95" s="7">
         <v>123</v>
       </c>
       <c r="K95" s="7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="L95" s="8">
-        <v>0.5</v>
+        <v>0.35416666666666669</v>
       </c>
       <c r="M95" s="8">
-        <v>0.625</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="N95" s="9"/>
     </row>
@@ -18965,10 +18937,10 @@
         <v>66</v>
       </c>
       <c r="E96" s="7" t="s">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="F96" s="7">
-        <v>1360</v>
+        <v>1018</v>
       </c>
       <c r="G96" s="7">
         <v>1</v>
@@ -18980,20 +18952,18 @@
         <v>24</v>
       </c>
       <c r="J96" s="7">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="K96" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L96" s="8">
         <v>0.5</v>
       </c>
       <c r="M96" s="8">
-        <v>0.57638888888888895</v>
-      </c>
-      <c r="N96" s="9" t="s">
-        <v>51</v>
-      </c>
+        <v>0.625</v>
+      </c>
+      <c r="N96" s="9"/>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" s="6">
@@ -19009,10 +18979,10 @@
         <v>66</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>90</v>
+        <v>44</v>
       </c>
       <c r="F97" s="7">
-        <v>1016</v>
+        <v>1360</v>
       </c>
       <c r="G97" s="7">
         <v>1</v>
@@ -19030,12 +19000,14 @@
         <v>20</v>
       </c>
       <c r="L97" s="8">
-        <v>0.58333333333333337</v>
+        <v>0.5</v>
       </c>
       <c r="M97" s="8">
-        <v>0.625</v>
-      </c>
-      <c r="N97" s="9"/>
+        <v>0.57638888888888895</v>
+      </c>
+      <c r="N97" s="9" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" s="6">
@@ -19051,10 +19023,10 @@
         <v>66</v>
       </c>
       <c r="E98" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F98" s="7">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="G98" s="7">
         <v>1</v>
@@ -19069,10 +19041,10 @@
         <v>111</v>
       </c>
       <c r="K98" s="7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="L98" s="8">
-        <v>0.5</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="M98" s="8">
         <v>0.625</v>
@@ -19080,94 +19052,94 @@
       <c r="N98" s="9"/>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A99" s="10">
+      <c r="A99" s="6">
         <v>1171</v>
       </c>
-      <c r="B99" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C99" s="11" t="s">
+      <c r="B99" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C99" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D99" s="11" t="s">
+      <c r="D99" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="E99" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="F99" s="11">
-        <v>1016</v>
-      </c>
-      <c r="G99" s="11">
-        <v>1</v>
-      </c>
-      <c r="H99" s="11">
-        <v>1</v>
-      </c>
-      <c r="I99" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="J99" s="11">
+      <c r="E99" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F99" s="7">
+        <v>1017</v>
+      </c>
+      <c r="G99" s="7">
+        <v>1</v>
+      </c>
+      <c r="H99" s="7">
+        <v>1</v>
+      </c>
+      <c r="I99" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J99" s="7">
         <v>111</v>
       </c>
-      <c r="K99" s="11" t="s">
+      <c r="K99" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L99" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="M99" s="8">
+        <v>0.625</v>
+      </c>
+      <c r="N99" s="9"/>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A100" s="10">
+        <v>1171</v>
+      </c>
+      <c r="B100" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C100" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D100" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E100" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="F100" s="7">
+        <v>1017</v>
+      </c>
+      <c r="G100" s="11">
+        <v>1</v>
+      </c>
+      <c r="H100" s="11">
+        <v>1</v>
+      </c>
+      <c r="I100" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J100" s="11">
+        <v>111</v>
+      </c>
+      <c r="K100" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="L99" s="12">
+      <c r="L100" s="12">
         <v>0.35416666666666669</v>
       </c>
-      <c r="M99" s="12">
+      <c r="M100" s="12">
         <v>0.47916666666666669</v>
       </c>
-      <c r="N99" s="13"/>
-    </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A100" s="2">
+      <c r="N100" s="13"/>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A101" s="2">
         <v>1171</v>
       </c>
-      <c r="B100" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C100" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D100" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="F100" s="3">
-        <v>1019</v>
-      </c>
-      <c r="G100" s="3">
-        <v>1</v>
-      </c>
-      <c r="H100" s="3">
-        <v>1</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L100" s="4">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="M100" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="N100" s="5"/>
-    </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A101" s="6">
-        <v>1171</v>
-      </c>
-      <c r="B101" s="7" t="s">
+      <c r="B101" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C101" s="7" t="s">
@@ -19176,34 +19148,34 @@
       <c r="D101" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E101" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="F101" s="7">
-        <v>1019</v>
-      </c>
-      <c r="G101" s="7">
-        <v>1</v>
-      </c>
-      <c r="H101" s="7">
-        <v>1</v>
-      </c>
-      <c r="I101" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J101" s="7" t="s">
+      <c r="E101" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F101" s="3">
+        <v>1010</v>
+      </c>
+      <c r="G101" s="3">
+        <v>1</v>
+      </c>
+      <c r="H101" s="3">
+        <v>1</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J101" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="K101" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L101" s="8">
-        <v>0.375</v>
-      </c>
-      <c r="M101" s="8">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="N101" s="9"/>
+      <c r="K101" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L101" s="4">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="M101" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="N101" s="5"/>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" s="6">
@@ -19219,10 +19191,10 @@
         <v>48</v>
       </c>
       <c r="E102" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F102" s="7">
-        <v>1019</v>
+        <v>1010</v>
       </c>
       <c r="G102" s="7">
         <v>1</v>
@@ -19231,19 +19203,19 @@
         <v>1</v>
       </c>
       <c r="I102" s="7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="J102" s="7" t="s">
         <v>32</v>
       </c>
       <c r="K102" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="L102" s="8">
-        <v>0.54166666666666663</v>
+        <v>0.375</v>
       </c>
       <c r="M102" s="8">
-        <v>0.64583333333333337</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="N102" s="9"/>
     </row>
@@ -19261,10 +19233,10 @@
         <v>48</v>
       </c>
       <c r="E103" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F103" s="7">
-        <v>1019</v>
+        <v>1011</v>
       </c>
       <c r="G103" s="7">
         <v>1</v>
@@ -19273,19 +19245,19 @@
         <v>1</v>
       </c>
       <c r="I103" s="7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="J103" s="7" t="s">
         <v>32</v>
       </c>
       <c r="K103" s="7" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="L103" s="8">
-        <v>0.3125</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="M103" s="8">
-        <v>0.5625</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="N103" s="9"/>
     </row>
@@ -19303,10 +19275,10 @@
         <v>48</v>
       </c>
       <c r="E104" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F104" s="7">
-        <v>1019</v>
+        <v>1011</v>
       </c>
       <c r="G104" s="7">
         <v>1</v>
@@ -19315,13 +19287,13 @@
         <v>1</v>
       </c>
       <c r="I104" s="7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="J104" s="7" t="s">
         <v>32</v>
       </c>
       <c r="K104" s="7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L104" s="8">
         <v>0.3125</v>
@@ -19345,10 +19317,10 @@
         <v>48</v>
       </c>
       <c r="E105" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F105" s="7">
-        <v>1019</v>
+        <v>1011</v>
       </c>
       <c r="G105" s="7">
         <v>1</v>
@@ -19357,13 +19329,13 @@
         <v>1</v>
       </c>
       <c r="I105" s="7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="J105" s="7" t="s">
         <v>32</v>
       </c>
       <c r="K105" s="7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="L105" s="8">
         <v>0.3125</v>
@@ -19387,10 +19359,10 @@
         <v>48</v>
       </c>
       <c r="E106" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F106" s="7">
-        <v>1019</v>
+        <v>1011</v>
       </c>
       <c r="G106" s="7">
         <v>1</v>
@@ -19405,13 +19377,13 @@
         <v>32</v>
       </c>
       <c r="K106" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L106" s="8">
-        <v>0.57291666666666663</v>
+        <v>0.3125</v>
       </c>
       <c r="M106" s="8">
-        <v>0.63888888888888895</v>
+        <v>0.5625</v>
       </c>
       <c r="N106" s="9"/>
     </row>
@@ -19429,10 +19401,10 @@
         <v>48</v>
       </c>
       <c r="E107" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F107" s="7">
-        <v>1019</v>
+        <v>1010</v>
       </c>
       <c r="G107" s="7">
         <v>1</v>
@@ -19447,7 +19419,7 @@
         <v>32</v>
       </c>
       <c r="K107" s="7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L107" s="8">
         <v>0.57291666666666663</v>
@@ -19458,130 +19430,130 @@
       <c r="N107" s="9"/>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A108" s="10">
+      <c r="A108" s="6">
         <v>1171</v>
       </c>
-      <c r="B108" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C108" s="11" t="s">
+      <c r="B108" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C108" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D108" s="11" t="s">
+      <c r="D108" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E108" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="F108" s="11">
-        <v>1019</v>
-      </c>
-      <c r="G108" s="11">
-        <v>1</v>
-      </c>
-      <c r="H108" s="11">
-        <v>1</v>
-      </c>
-      <c r="I108" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="J108" s="11" t="s">
+      <c r="E108" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F108" s="7">
+        <v>1010</v>
+      </c>
+      <c r="G108" s="7">
+        <v>1</v>
+      </c>
+      <c r="H108" s="7">
+        <v>1</v>
+      </c>
+      <c r="I108" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J108" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="K108" s="11" t="s">
+      <c r="K108" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L108" s="8">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="M108" s="8">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="N108" s="9"/>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A109" s="10">
+        <v>1171</v>
+      </c>
+      <c r="B109" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C109" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D109" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E109" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="F109" s="11">
+        <v>1010</v>
+      </c>
+      <c r="G109" s="11">
+        <v>1</v>
+      </c>
+      <c r="H109" s="11">
+        <v>1</v>
+      </c>
+      <c r="I109" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J109" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="K109" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="L108" s="12">
+      <c r="L109" s="12">
         <v>0.57291666666666663</v>
       </c>
-      <c r="M108" s="12">
+      <c r="M109" s="12">
         <v>0.63888888888888895</v>
       </c>
-      <c r="N108" s="13"/>
-    </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A109" s="2">
+      <c r="N109" s="13"/>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A110" s="2">
         <v>1171</v>
       </c>
-      <c r="B109" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C109" s="3" t="s">
+      <c r="B110" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E110" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D109" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E109" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F109" s="3">
+      <c r="F110" s="3">
         <v>1235</v>
       </c>
-      <c r="G109" s="3">
-        <v>1</v>
-      </c>
-      <c r="H109" s="3">
-        <v>1</v>
-      </c>
-      <c r="I109" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J109" s="3">
+      <c r="G110" s="3">
+        <v>1</v>
+      </c>
+      <c r="H110" s="3">
+        <v>1</v>
+      </c>
+      <c r="I110" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J110" s="3">
         <v>213</v>
       </c>
-      <c r="K109" s="3" t="s">
+      <c r="K110" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L109" s="4">
+      <c r="L110" s="4">
         <v>0.35416666666666669</v>
       </c>
-      <c r="M109" s="4">
+      <c r="M110" s="4">
         <v>0.43055555555555558</v>
       </c>
-      <c r="N109" s="5"/>
-    </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A110" s="6">
-        <v>1171</v>
-      </c>
-      <c r="B110" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C110" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="D110" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="E110" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="F110" s="7">
-        <v>1235</v>
-      </c>
-      <c r="G110" s="7">
-        <v>1</v>
-      </c>
-      <c r="H110" s="7">
-        <v>1</v>
-      </c>
-      <c r="I110" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J110" s="7">
-        <v>214</v>
-      </c>
-      <c r="K110" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L110" s="8">
-        <v>0.56944444444444442</v>
-      </c>
-      <c r="M110" s="8">
-        <v>0.64583333333333337</v>
-      </c>
-      <c r="N110" s="9"/>
+      <c r="N110" s="5"/>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111" s="6">
@@ -19591,16 +19563,16 @@
         <v>14</v>
       </c>
       <c r="C111" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D111" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E111" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D111" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="E111" s="7" t="s">
-        <v>85</v>
-      </c>
       <c r="F111" s="7">
-        <v>2210</v>
+        <v>1235</v>
       </c>
       <c r="G111" s="7">
         <v>1</v>
@@ -19615,13 +19587,13 @@
         <v>214</v>
       </c>
       <c r="K111" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="L111" s="8">
-        <v>0.44444444444444442</v>
+        <v>0.56944444444444442</v>
       </c>
       <c r="M111" s="8">
-        <v>0.52083333333333337</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="N111" s="9"/>
     </row>
@@ -19633,13 +19605,13 @@
         <v>14</v>
       </c>
       <c r="C112" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D112" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E112" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="D112" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="E112" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="F112" s="7">
         <v>2210</v>
@@ -19657,13 +19629,13 @@
         <v>214</v>
       </c>
       <c r="K112" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="L112" s="8">
-        <v>0.56944444444444442</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="M112" s="8">
-        <v>0.6875</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="N112" s="9"/>
     </row>
@@ -19675,15 +19647,17 @@
         <v>14</v>
       </c>
       <c r="C113" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D113" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E113" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D113" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="E113" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="F113" s="7"/>
+      <c r="F113" s="7">
+        <v>2210</v>
+      </c>
       <c r="G113" s="7">
         <v>1</v>
       </c>
@@ -19693,17 +19667,17 @@
       <c r="I113" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="J113" s="7" t="s">
-        <v>32</v>
+      <c r="J113" s="7">
+        <v>214</v>
       </c>
       <c r="K113" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="L113" s="8">
         <v>0.56944444444444442</v>
       </c>
       <c r="M113" s="8">
-        <v>0.64583333333333337</v>
+        <v>0.6875</v>
       </c>
       <c r="N113" s="9"/>
     </row>
@@ -19715,15 +19689,17 @@
         <v>14</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D114" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E114" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="F114" s="7"/>
+        <v>89</v>
+      </c>
+      <c r="F114" s="22" t="s">
+        <v>90</v>
+      </c>
       <c r="G114" s="7">
         <v>1</v>
       </c>
@@ -19737,7 +19713,7 @@
         <v>32</v>
       </c>
       <c r="K114" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L114" s="8">
         <v>0.56944444444444442</v>
@@ -19755,16 +19731,16 @@
         <v>14</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D115" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E115" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="F115" s="7">
-        <v>2500</v>
+        <v>89</v>
+      </c>
+      <c r="F115" s="22" t="s">
+        <v>90</v>
       </c>
       <c r="G115" s="7">
         <v>1</v>
@@ -19775,17 +19751,17 @@
       <c r="I115" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="J115" s="7">
-        <v>214</v>
+      <c r="J115" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="K115" s="7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L115" s="8">
-        <v>0.39583333333333331</v>
+        <v>0.56944444444444442</v>
       </c>
       <c r="M115" s="8">
-        <v>0.47916666666666669</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="N115" s="9"/>
     </row>
@@ -19797,13 +19773,13 @@
         <v>14</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D116" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E116" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F116" s="7">
         <v>2500</v>
@@ -19821,13 +19797,13 @@
         <v>214</v>
       </c>
       <c r="K116" s="7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L116" s="8">
-        <v>0.35416666666666669</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="M116" s="8">
-        <v>0.43055555555555558</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="N116" s="9"/>
     </row>
@@ -19839,16 +19815,16 @@
         <v>14</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D117" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E117" s="7" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F117" s="7">
-        <v>1285</v>
+        <v>2500</v>
       </c>
       <c r="G117" s="7">
         <v>1</v>
@@ -19863,13 +19839,13 @@
         <v>214</v>
       </c>
       <c r="K117" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="L117" s="8">
-        <v>0.52777777777777779</v>
+        <v>0.35416666666666669</v>
       </c>
       <c r="M117" s="8">
-        <v>0.60416666666666663</v>
+        <v>0.43055555555555558</v>
       </c>
       <c r="N117" s="9"/>
     </row>
@@ -19881,13 +19857,13 @@
         <v>14</v>
       </c>
       <c r="C118" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D118" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E118" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="D118" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="E118" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="F118" s="7">
         <v>1285</v>
@@ -19905,143 +19881,143 @@
         <v>214</v>
       </c>
       <c r="K118" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L118" s="8">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="M118" s="8">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="N118" s="9"/>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A119" s="6">
+        <v>1171</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C119" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D119" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E119" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F119" s="7">
+        <v>1285</v>
+      </c>
+      <c r="G119" s="7">
+        <v>1</v>
+      </c>
+      <c r="H119" s="7">
+        <v>1</v>
+      </c>
+      <c r="I119" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J119" s="7">
+        <v>214</v>
+      </c>
+      <c r="K119" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="L118" s="8">
+      <c r="L119" s="8">
         <v>0.44444444444444442</v>
       </c>
-      <c r="M118" s="8">
+      <c r="M119" s="8">
         <v>0.52083333333333337</v>
       </c>
-      <c r="N118" s="9"/>
-    </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A119" s="10">
+      <c r="N119" s="9"/>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A120" s="10">
         <v>1171</v>
       </c>
-      <c r="B119" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C119" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D119" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="E119" s="11" t="s">
+      <c r="B120" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C120" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D120" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E120" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F119" s="11">
+      <c r="F120" s="11">
         <v>1680</v>
       </c>
-      <c r="G119" s="11">
-        <v>1</v>
-      </c>
-      <c r="H119" s="11">
-        <v>1</v>
-      </c>
-      <c r="I119" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="J119" s="11">
+      <c r="G120" s="11">
+        <v>1</v>
+      </c>
+      <c r="H120" s="11">
+        <v>1</v>
+      </c>
+      <c r="I120" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J120" s="11">
         <v>213</v>
       </c>
-      <c r="K119" s="11" t="s">
+      <c r="K120" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="L119" s="12">
+      <c r="L120" s="12">
         <v>0.35416666666666669</v>
       </c>
-      <c r="M119" s="12">
+      <c r="M120" s="12">
         <v>0.47916666666666669</v>
       </c>
-      <c r="N119" s="13">
+      <c r="N120" s="13">
         <v>195001274</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A120" s="2">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A121" s="2">
         <v>1171</v>
       </c>
-      <c r="B120" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C120" s="3" t="s">
+      <c r="B121" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C121" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D120" s="3" t="s">
+      <c r="D121" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E120" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="F120" s="3">
-        <v>1008</v>
-      </c>
-      <c r="G120" s="3">
-        <v>1</v>
-      </c>
-      <c r="H120" s="3">
-        <v>1</v>
-      </c>
-      <c r="I120" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J120" s="3">
+      <c r="E121" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F121" s="3">
+        <v>1009</v>
+      </c>
+      <c r="G121" s="3">
+        <v>1</v>
+      </c>
+      <c r="H121" s="3">
+        <v>1</v>
+      </c>
+      <c r="I121" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J121" s="3">
         <v>118</v>
       </c>
-      <c r="K120" s="3" t="s">
+      <c r="K121" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L120" s="4">
+      <c r="L121" s="4">
         <v>0.35416666666666669</v>
       </c>
-      <c r="M120" s="4">
+      <c r="M121" s="4">
         <v>0.47916666666666669</v>
       </c>
-      <c r="N120" s="5"/>
-    </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A121" s="6">
-        <v>1171</v>
-      </c>
-      <c r="B121" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C121" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D121" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E121" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="F121" s="7">
-        <v>1008</v>
-      </c>
-      <c r="G121" s="7">
-        <v>1</v>
-      </c>
-      <c r="H121" s="7">
-        <v>1</v>
-      </c>
-      <c r="I121" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J121" s="7">
-        <v>118</v>
-      </c>
-      <c r="K121" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L121" s="8">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="M121" s="8">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="N121" s="9"/>
+      <c r="N121" s="5"/>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122" s="6">
@@ -20057,10 +20033,10 @@
         <v>58</v>
       </c>
       <c r="E122" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F122" s="7">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="G122" s="7">
         <v>1</v>
@@ -20069,7 +20045,7 @@
         <v>1</v>
       </c>
       <c r="I122" s="7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="J122" s="7">
         <v>118</v>
@@ -20078,10 +20054,10 @@
         <v>20</v>
       </c>
       <c r="L122" s="8">
-        <v>0.5</v>
+        <v>0.35416666666666669</v>
       </c>
       <c r="M122" s="8">
-        <v>0.625</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="N122" s="9"/>
     </row>
@@ -20099,10 +20075,10 @@
         <v>58</v>
       </c>
       <c r="E123" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F123" s="7">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="G123" s="7">
         <v>1</v>
@@ -20111,19 +20087,19 @@
         <v>1</v>
       </c>
       <c r="I123" s="7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="J123" s="7">
         <v>118</v>
       </c>
       <c r="K123" s="7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="L123" s="8">
-        <v>0.35416666666666669</v>
+        <v>0.5</v>
       </c>
       <c r="M123" s="8">
-        <v>0.47916666666666669</v>
+        <v>0.625</v>
       </c>
       <c r="N123" s="9"/>
     </row>
@@ -20141,10 +20117,10 @@
         <v>58</v>
       </c>
       <c r="E124" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F124" s="7">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="G124" s="7">
         <v>1</v>
@@ -20153,13 +20129,13 @@
         <v>1</v>
       </c>
       <c r="I124" s="7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="J124" s="7">
         <v>118</v>
       </c>
       <c r="K124" s="7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="L124" s="8">
         <v>0.35416666666666669</v>
@@ -20183,10 +20159,10 @@
         <v>58</v>
       </c>
       <c r="E125" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F125" s="7">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="G125" s="7">
         <v>1</v>
@@ -20198,16 +20174,16 @@
         <v>24</v>
       </c>
       <c r="J125" s="7">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="K125" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="L125" s="8">
-        <v>0.5</v>
+        <v>0.35416666666666669</v>
       </c>
       <c r="M125" s="8">
-        <v>0.625</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="N125" s="9"/>
     </row>
@@ -20225,7 +20201,7 @@
         <v>58</v>
       </c>
       <c r="E126" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F126" s="7">
         <v>1008</v>
@@ -20240,16 +20216,16 @@
         <v>24</v>
       </c>
       <c r="J126" s="7">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="K126" s="7" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="L126" s="8">
-        <v>0.4375</v>
+        <v>0.5</v>
       </c>
       <c r="M126" s="8">
-        <v>0.47916666666666669</v>
+        <v>0.625</v>
       </c>
       <c r="N126" s="9"/>
     </row>
@@ -20267,7 +20243,7 @@
         <v>58</v>
       </c>
       <c r="E127" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F127" s="7">
         <v>1008</v>
@@ -20282,16 +20258,16 @@
         <v>24</v>
       </c>
       <c r="J127" s="7">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="K127" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L127" s="8">
-        <v>0.5</v>
+        <v>0.4375</v>
       </c>
       <c r="M127" s="8">
-        <v>0.625</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="N127" s="9"/>
     </row>
@@ -20309,7 +20285,7 @@
         <v>58</v>
       </c>
       <c r="E128" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F128" s="7">
         <v>1008</v>
@@ -20327,7 +20303,7 @@
         <v>102</v>
       </c>
       <c r="K128" s="7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="L128" s="8">
         <v>0.5</v>
@@ -20351,10 +20327,10 @@
         <v>58</v>
       </c>
       <c r="E129" s="7" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="F129" s="7">
-        <v>1101</v>
+        <v>1008</v>
       </c>
       <c r="G129" s="7">
         <v>1</v>
@@ -20366,20 +20342,18 @@
         <v>24</v>
       </c>
       <c r="J129" s="7">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="K129" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="L129" s="8">
-        <v>0.35416666666666669</v>
+        <v>0.5</v>
       </c>
       <c r="M129" s="8">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="N129" s="9" t="s">
-        <v>51</v>
-      </c>
+        <v>0.625</v>
+      </c>
+      <c r="N129" s="9"/>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130" s="6">
@@ -20395,10 +20369,10 @@
         <v>58</v>
       </c>
       <c r="E130" s="7" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="F130" s="7">
-        <v>1060</v>
+        <v>1101</v>
       </c>
       <c r="G130" s="7">
         <v>1</v>
@@ -20416,10 +20390,10 @@
         <v>25</v>
       </c>
       <c r="L130" s="8">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="M130" s="8">
         <v>0.39583333333333331</v>
-      </c>
-      <c r="M130" s="8">
-        <v>0.42708333333333331</v>
       </c>
       <c r="N130" s="9" t="s">
         <v>51</v>
@@ -20439,10 +20413,10 @@
         <v>58</v>
       </c>
       <c r="E131" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="F131" s="7">
-        <v>1760</v>
+        <v>1060</v>
       </c>
       <c r="G131" s="7">
         <v>1</v>
@@ -20460,106 +20434,108 @@
         <v>25</v>
       </c>
       <c r="L131" s="8">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="M131" s="8">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="N131" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A132" s="6">
+        <v>1171</v>
+      </c>
+      <c r="B132" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C132" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D132" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E132" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F132" s="7">
+        <v>1760</v>
+      </c>
+      <c r="G132" s="7">
+        <v>1</v>
+      </c>
+      <c r="H132" s="7">
+        <v>1</v>
+      </c>
+      <c r="I132" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J132" s="7">
+        <v>109</v>
+      </c>
+      <c r="K132" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L132" s="8">
         <v>0.5</v>
       </c>
-      <c r="M131" s="8">
+      <c r="M132" s="8">
         <v>0.57638888888888895</v>
       </c>
-      <c r="N131" s="9" t="s">
+      <c r="N132" s="9" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A132" s="10">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A133" s="10">
         <v>1171</v>
       </c>
-      <c r="B132" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C132" s="11" t="s">
+      <c r="B133" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C133" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="D132" s="11" t="s">
+      <c r="D133" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="E132" s="11" t="s">
+      <c r="E133" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F132" s="11">
+      <c r="F133" s="11">
         <v>1760</v>
       </c>
-      <c r="G132" s="11">
-        <v>1</v>
-      </c>
-      <c r="H132" s="11">
-        <v>1</v>
-      </c>
-      <c r="I132" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="J132" s="11">
+      <c r="G133" s="11">
+        <v>1</v>
+      </c>
+      <c r="H133" s="11">
+        <v>1</v>
+      </c>
+      <c r="I133" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J133" s="11">
         <v>111</v>
       </c>
-      <c r="K132" s="11" t="s">
+      <c r="K133" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="L132" s="12">
+      <c r="L133" s="12">
         <v>0.58333333333333337</v>
       </c>
-      <c r="M132" s="12">
+      <c r="M133" s="12">
         <v>0.625</v>
       </c>
-      <c r="N132" s="13" t="s">
+      <c r="N133" s="13" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A133" s="2">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A134" s="2">
         <v>1171</v>
       </c>
-      <c r="B133" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C133" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D133" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E133" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="F133" s="3">
-        <v>1006</v>
-      </c>
-      <c r="G133" s="3">
-        <v>1</v>
-      </c>
-      <c r="H133" s="3">
-        <v>1</v>
-      </c>
-      <c r="I133" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J133" s="3">
-        <v>128</v>
-      </c>
-      <c r="K133" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L133" s="4">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="M133" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="N133" s="5"/>
-    </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A134" s="6">
-        <v>1171</v>
-      </c>
-      <c r="B134" s="7" t="s">
+      <c r="B134" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C134" s="7" t="s">
@@ -20568,34 +20544,34 @@
       <c r="D134" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E134" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="F134" s="7">
-        <v>1006</v>
-      </c>
-      <c r="G134" s="7">
-        <v>1</v>
-      </c>
-      <c r="H134" s="7">
+      <c r="E134" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F134" s="3">
+        <v>1007</v>
+      </c>
+      <c r="G134" s="3">
+        <v>1</v>
+      </c>
+      <c r="H134" s="3">
         <v>1</v>
       </c>
       <c r="I134" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J134" s="7">
+        <v>24</v>
+      </c>
+      <c r="J134" s="3">
         <v>128</v>
       </c>
-      <c r="K134" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L134" s="8">
+      <c r="K134" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L134" s="4">
         <v>0.35416666666666669</v>
       </c>
-      <c r="M134" s="8">
+      <c r="M134" s="4">
         <v>0.5</v>
       </c>
-      <c r="N134" s="9"/>
+      <c r="N134" s="5"/>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A135" s="6">
@@ -20611,10 +20587,10 @@
         <v>50</v>
       </c>
       <c r="E135" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F135" s="7">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="G135" s="7">
         <v>1</v>
@@ -20623,7 +20599,7 @@
         <v>1</v>
       </c>
       <c r="I135" s="7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="J135" s="7">
         <v>128</v>
@@ -20632,10 +20608,10 @@
         <v>25</v>
       </c>
       <c r="L135" s="8">
-        <v>0.64583333333333337</v>
+        <v>0.35416666666666669</v>
       </c>
       <c r="M135" s="8">
-        <v>0.6875</v>
+        <v>0.5</v>
       </c>
       <c r="N135" s="9"/>
     </row>
@@ -20653,10 +20629,10 @@
         <v>50</v>
       </c>
       <c r="E136" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F136" s="7">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="G136" s="7">
         <v>1</v>
@@ -20665,19 +20641,19 @@
         <v>1</v>
       </c>
       <c r="I136" s="7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="J136" s="7">
         <v>128</v>
       </c>
       <c r="K136" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L136" s="8">
-        <v>0.35416666666666669</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="M136" s="8">
-        <v>0.5</v>
+        <v>0.6875</v>
       </c>
       <c r="N136" s="9"/>
     </row>
@@ -20695,10 +20671,10 @@
         <v>50</v>
       </c>
       <c r="E137" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F137" s="7">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="G137" s="7">
         <v>1</v>
@@ -20710,16 +20686,16 @@
         <v>24</v>
       </c>
       <c r="J137" s="7">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="K137" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="L137" s="8">
-        <v>0.52083333333333337</v>
+        <v>0.35416666666666669</v>
       </c>
       <c r="M137" s="8">
-        <v>0.6875</v>
+        <v>0.5</v>
       </c>
       <c r="N137" s="9"/>
     </row>
@@ -20737,7 +20713,7 @@
         <v>50</v>
       </c>
       <c r="E138" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F138" s="7">
         <v>1006</v>
@@ -20755,7 +20731,7 @@
         <v>101</v>
       </c>
       <c r="K138" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L138" s="8">
         <v>0.52083333333333337</v>
@@ -20779,7 +20755,7 @@
         <v>50</v>
       </c>
       <c r="E139" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F139" s="7">
         <v>1006</v>
@@ -20797,7 +20773,7 @@
         <v>101</v>
       </c>
       <c r="K139" s="7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="L139" s="8">
         <v>0.52083333333333337</v>
@@ -20821,10 +20797,10 @@
         <v>50</v>
       </c>
       <c r="E140" s="7" t="s">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="F140" s="7">
-        <v>1220</v>
+        <v>1006</v>
       </c>
       <c r="G140" s="7">
         <v>1</v>
@@ -20836,20 +20812,18 @@
         <v>24</v>
       </c>
       <c r="J140" s="7">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="K140" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L140" s="8">
         <v>0.52083333333333337</v>
       </c>
       <c r="M140" s="8">
-        <v>0.60416666666666663</v>
-      </c>
-      <c r="N140" s="9" t="s">
-        <v>51</v>
-      </c>
+        <v>0.6875</v>
+      </c>
+      <c r="N140" s="9"/>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A141" s="6">
@@ -20865,10 +20839,10 @@
         <v>50</v>
       </c>
       <c r="E141" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F141" s="7">
-        <v>1101</v>
+        <v>1220</v>
       </c>
       <c r="G141" s="7">
         <v>1</v>
@@ -20880,16 +20854,16 @@
         <v>24</v>
       </c>
       <c r="J141" s="7">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K141" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L141" s="8">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="M141" s="8">
         <v>0.60416666666666663</v>
-      </c>
-      <c r="M141" s="8">
-        <v>0.64583333333333337</v>
       </c>
       <c r="N141" s="9" t="s">
         <v>51</v>
@@ -20909,10 +20883,10 @@
         <v>50</v>
       </c>
       <c r="E142" s="7" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F142" s="7">
-        <v>1760</v>
+        <v>1101</v>
       </c>
       <c r="G142" s="7">
         <v>1</v>
@@ -20927,111 +20901,111 @@
         <v>109</v>
       </c>
       <c r="K142" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L142" s="8">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="M142" s="8">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="N142" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A143" s="6">
+        <v>1171</v>
+      </c>
+      <c r="B143" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C143" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D143" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E143" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F143" s="7">
+        <v>1760</v>
+      </c>
+      <c r="G143" s="7">
+        <v>1</v>
+      </c>
+      <c r="H143" s="7">
+        <v>1</v>
+      </c>
+      <c r="I143" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J143" s="7">
+        <v>109</v>
+      </c>
+      <c r="K143" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="L142" s="8">
+      <c r="L143" s="8">
         <v>0.35416666666666669</v>
       </c>
-      <c r="M142" s="8">
+      <c r="M143" s="8">
         <v>0.4375</v>
       </c>
-      <c r="N142" s="9" t="s">
+      <c r="N143" s="9" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A143" s="10">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A144" s="10">
         <v>1171</v>
       </c>
-      <c r="B143" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C143" s="11" t="s">
+      <c r="B144" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C144" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D143" s="11" t="s">
+      <c r="D144" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="E143" s="11" t="s">
+      <c r="E144" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F143" s="11">
+      <c r="F144" s="11">
         <v>1760</v>
       </c>
-      <c r="G143" s="11">
-        <v>1</v>
-      </c>
-      <c r="H143" s="11">
-        <v>1</v>
-      </c>
-      <c r="I143" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="J143" s="11">
+      <c r="G144" s="11">
+        <v>1</v>
+      </c>
+      <c r="H144" s="11">
+        <v>1</v>
+      </c>
+      <c r="I144" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J144" s="11">
         <v>111</v>
       </c>
-      <c r="K143" s="11" t="s">
+      <c r="K144" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="L143" s="12">
+      <c r="L144" s="12">
         <v>0.4375</v>
       </c>
-      <c r="M143" s="12">
+      <c r="M144" s="12">
         <v>0.47916666666666669</v>
       </c>
-      <c r="N143" s="13" t="s">
+      <c r="N144" s="13" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A144" s="2">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A145" s="2">
         <v>1171</v>
       </c>
-      <c r="B144" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C144" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D144" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E144" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F144" s="3">
-        <v>1101</v>
-      </c>
-      <c r="G144" s="3">
-        <v>2</v>
-      </c>
-      <c r="H144" s="3">
-        <v>1</v>
-      </c>
-      <c r="I144" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J144" s="3">
-        <v>111</v>
-      </c>
-      <c r="K144" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L144" s="4">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="M144" s="4">
-        <v>0.375</v>
-      </c>
-      <c r="N144" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A145" s="6">
-        <v>1171</v>
-      </c>
-      <c r="B145" s="7" t="s">
+      <c r="B145" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C145" s="7" t="s">
@@ -21040,34 +21014,36 @@
       <c r="D145" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E145" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="F145" s="7">
-        <v>1006</v>
-      </c>
-      <c r="G145" s="7">
+      <c r="E145" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F145" s="3">
+        <v>1101</v>
+      </c>
+      <c r="G145" s="3">
         <v>2</v>
       </c>
-      <c r="H145" s="7">
-        <v>1</v>
-      </c>
-      <c r="I145" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J145" s="7">
-        <v>101</v>
-      </c>
-      <c r="K145" s="7" t="s">
+      <c r="H145" s="3">
+        <v>1</v>
+      </c>
+      <c r="I145" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J145" s="3">
+        <v>111</v>
+      </c>
+      <c r="K145" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="L145" s="8">
+      <c r="L145" s="4">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="M145" s="4">
         <v>0.375</v>
       </c>
-      <c r="M145" s="8">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="N145" s="9"/>
+      <c r="N145" s="5" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A146" s="6">
@@ -21083,7 +21059,7 @@
         <v>50</v>
       </c>
       <c r="E146" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F146" s="7">
         <v>1006</v>
@@ -21104,10 +21080,10 @@
         <v>20</v>
       </c>
       <c r="L146" s="8">
-        <v>0.66666666666666663</v>
+        <v>0.375</v>
       </c>
       <c r="M146" s="8">
-        <v>0.77083333333333337</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="N146" s="9"/>
     </row>
@@ -21125,7 +21101,7 @@
         <v>50</v>
       </c>
       <c r="E147" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F147" s="7">
         <v>1006</v>
@@ -21143,13 +21119,13 @@
         <v>101</v>
       </c>
       <c r="K147" s="7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="L147" s="8">
-        <v>0.33333333333333331</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="M147" s="8">
-        <v>0.41666666666666669</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="N147" s="9"/>
     </row>
@@ -21167,10 +21143,10 @@
         <v>50</v>
       </c>
       <c r="E148" s="7" t="s">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="F148" s="7">
-        <v>1760</v>
+        <v>1006</v>
       </c>
       <c r="G148" s="7">
         <v>2</v>
@@ -21182,20 +21158,18 @@
         <v>24</v>
       </c>
       <c r="J148" s="7">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="K148" s="7" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="L148" s="8">
-        <v>0.54166666666666663</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="M148" s="8">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="N148" s="9">
-        <v>20084225</v>
-      </c>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="N148" s="9"/>
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A149" s="6">
@@ -21211,10 +21185,10 @@
         <v>50</v>
       </c>
       <c r="E149" s="7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F149" s="7">
-        <v>1220</v>
+        <v>1760</v>
       </c>
       <c r="G149" s="7">
         <v>2</v>
@@ -21226,19 +21200,19 @@
         <v>24</v>
       </c>
       <c r="J149" s="7">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K149" s="7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="L149" s="8">
-        <v>0.41666666666666669</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="M149" s="8">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="N149" s="9" t="s">
-        <v>51</v>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="N149" s="9">
+        <v>20084225</v>
       </c>
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.25">
@@ -21255,10 +21229,10 @@
         <v>50</v>
       </c>
       <c r="E150" s="7" t="s">
-        <v>90</v>
+        <v>44</v>
       </c>
       <c r="F150" s="7">
-        <v>1006</v>
+        <v>1220</v>
       </c>
       <c r="G150" s="7">
         <v>2</v>
@@ -21267,21 +21241,23 @@
         <v>1</v>
       </c>
       <c r="I150" s="7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="J150" s="7">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="K150" s="7" t="s">
         <v>26</v>
       </c>
       <c r="L150" s="8">
-        <v>0.54166666666666663</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="M150" s="8">
-        <v>0.77083333333333337</v>
-      </c>
-      <c r="N150" s="9"/>
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="N150" s="9" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A151" s="6">
@@ -21297,10 +21273,10 @@
         <v>50</v>
       </c>
       <c r="E151" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F151" s="7">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="G151" s="7">
         <v>2</v>
@@ -21309,105 +21285,105 @@
         <v>1</v>
       </c>
       <c r="I151" s="7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="J151" s="7">
         <v>128</v>
       </c>
       <c r="K151" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L151" s="8">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="M151" s="8">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="N151" s="9"/>
+    </row>
+    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A152" s="6">
+        <v>1171</v>
+      </c>
+      <c r="B152" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C152" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D152" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E152" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F152" s="7">
+        <v>1007</v>
+      </c>
+      <c r="G152" s="7">
+        <v>2</v>
+      </c>
+      <c r="H152" s="7">
+        <v>1</v>
+      </c>
+      <c r="I152" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J152" s="7">
+        <v>128</v>
+      </c>
+      <c r="K152" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="L151" s="8">
+      <c r="L152" s="8">
         <v>0.33333333333333331</v>
       </c>
-      <c r="M151" s="8">
+      <c r="M152" s="8">
         <v>0.52083333333333337</v>
       </c>
-      <c r="N151" s="9"/>
-    </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A152" s="10">
+      <c r="N152" s="9"/>
+    </row>
+    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A153" s="10">
         <v>1171</v>
       </c>
-      <c r="B152" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C152" s="11" t="s">
+      <c r="B153" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C153" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D152" s="11" t="s">
+      <c r="D153" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="E152" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="F152" s="11">
-        <v>1006</v>
-      </c>
-      <c r="G152" s="11">
+      <c r="E153" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="F153" s="11">
+        <v>1007</v>
+      </c>
+      <c r="G153" s="11">
         <v>2</v>
       </c>
-      <c r="H152" s="11">
-        <v>1</v>
-      </c>
-      <c r="I152" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J152" s="11">
+      <c r="H153" s="11">
+        <v>1</v>
+      </c>
+      <c r="I153" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J153" s="11">
         <v>128</v>
       </c>
-      <c r="K152" s="11" t="s">
+      <c r="K153" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="L152" s="12">
+      <c r="L153" s="12">
         <v>0.54166666666666663</v>
       </c>
-      <c r="M152" s="12">
+      <c r="M153" s="12">
         <v>0.77083333333333337</v>
       </c>
-      <c r="N152" s="13"/>
-    </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A153" s="6">
-        <v>1171</v>
-      </c>
-      <c r="B153" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C153" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D153" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="E153" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="F153" s="7">
-        <v>1014</v>
-      </c>
-      <c r="G153" s="7">
-        <v>1</v>
-      </c>
-      <c r="H153" s="7">
-        <v>1</v>
-      </c>
-      <c r="I153" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J153" s="7">
-        <v>104</v>
-      </c>
-      <c r="K153" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L153" s="8">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="M153" s="8">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="N153" s="9"/>
+      <c r="N153" s="13"/>
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A154" s="6">
@@ -21423,10 +21399,10 @@
         <v>60</v>
       </c>
       <c r="E154" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F154" s="7">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="G154" s="7">
         <v>1</v>
@@ -21441,7 +21417,7 @@
         <v>104</v>
       </c>
       <c r="K154" s="7" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="L154" s="8">
         <v>0.35416666666666669</v>
@@ -21465,10 +21441,10 @@
         <v>60</v>
       </c>
       <c r="E155" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F155" s="7">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="G155" s="7">
         <v>1</v>
@@ -21483,7 +21459,7 @@
         <v>104</v>
       </c>
       <c r="K155" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L155" s="8">
         <v>0.35416666666666669</v>
@@ -21507,10 +21483,10 @@
         <v>60</v>
       </c>
       <c r="E156" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F156" s="7">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="G156" s="7">
         <v>1</v>
@@ -21519,19 +21495,19 @@
         <v>1</v>
       </c>
       <c r="I156" s="7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="J156" s="7">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="K156" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="L156" s="8">
-        <v>0.5</v>
+        <v>0.35416666666666669</v>
       </c>
       <c r="M156" s="8">
-        <v>0.625</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="N156" s="9"/>
     </row>
@@ -21549,10 +21525,10 @@
         <v>60</v>
       </c>
       <c r="E157" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F157" s="7">
-        <v>1014</v>
+        <v>1020</v>
       </c>
       <c r="G157" s="7">
         <v>1</v>
@@ -21561,13 +21537,13 @@
         <v>1</v>
       </c>
       <c r="I157" s="7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="J157" s="7">
         <v>127</v>
       </c>
       <c r="K157" s="7" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="L157" s="8">
         <v>0.5</v>
@@ -21591,10 +21567,10 @@
         <v>60</v>
       </c>
       <c r="E158" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F158" s="7">
-        <v>1014</v>
+        <v>1020</v>
       </c>
       <c r="G158" s="7">
         <v>1</v>
@@ -21603,19 +21579,19 @@
         <v>1</v>
       </c>
       <c r="I158" s="7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="J158" s="7">
         <v>127</v>
       </c>
       <c r="K158" s="7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L158" s="8">
-        <v>0.35416666666666669</v>
+        <v>0.5</v>
       </c>
       <c r="M158" s="8">
-        <v>0.47916666666666669</v>
+        <v>0.625</v>
       </c>
       <c r="N158" s="9"/>
     </row>
@@ -21633,10 +21609,10 @@
         <v>60</v>
       </c>
       <c r="E159" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F159" s="7">
-        <v>1014</v>
+        <v>1020</v>
       </c>
       <c r="G159" s="7">
         <v>1</v>
@@ -21645,7 +21621,7 @@
         <v>1</v>
       </c>
       <c r="I159" s="7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="J159" s="7">
         <v>127</v>
@@ -21654,10 +21630,10 @@
         <v>20</v>
       </c>
       <c r="L159" s="8">
-        <v>0.5</v>
+        <v>0.35416666666666669</v>
       </c>
       <c r="M159" s="8">
-        <v>0.625</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="N159" s="9"/>
     </row>
@@ -21675,10 +21651,10 @@
         <v>60</v>
       </c>
       <c r="E160" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F160" s="7">
-        <v>1014</v>
+        <v>1020</v>
       </c>
       <c r="G160" s="7">
         <v>1</v>
@@ -21687,13 +21663,13 @@
         <v>1</v>
       </c>
       <c r="I160" s="7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="J160" s="7">
         <v>127</v>
       </c>
       <c r="K160" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L160" s="8">
         <v>0.5</v>
@@ -21717,10 +21693,10 @@
         <v>60</v>
       </c>
       <c r="E161" s="7" t="s">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="F161" s="7">
-        <v>1220</v>
+        <v>1020</v>
       </c>
       <c r="G161" s="7">
         <v>1</v>
@@ -21732,20 +21708,18 @@
         <v>24</v>
       </c>
       <c r="J161" s="7">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="K161" s="7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="L161" s="8">
         <v>0.5</v>
       </c>
       <c r="M161" s="8">
-        <v>0.57638888888888895</v>
-      </c>
-      <c r="N161" s="9" t="s">
-        <v>51</v>
-      </c>
+        <v>0.625</v>
+      </c>
+      <c r="N161" s="9"/>
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A162" s="6">
@@ -21761,10 +21735,10 @@
         <v>60</v>
       </c>
       <c r="E162" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F162" s="7">
-        <v>1101</v>
+        <v>1220</v>
       </c>
       <c r="G162" s="7">
         <v>1</v>
@@ -21776,16 +21750,16 @@
         <v>24</v>
       </c>
       <c r="J162" s="7">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K162" s="7" t="s">
         <v>26</v>
       </c>
       <c r="L162" s="8">
-        <v>0.58333333333333337</v>
+        <v>0.5</v>
       </c>
       <c r="M162" s="8">
-        <v>0.625</v>
+        <v>0.57638888888888895</v>
       </c>
       <c r="N162" s="9" t="s">
         <v>51</v>
@@ -21805,10 +21779,10 @@
         <v>60</v>
       </c>
       <c r="E163" s="7" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F163" s="7">
-        <v>1760</v>
+        <v>1101</v>
       </c>
       <c r="G163" s="7">
         <v>1</v>
@@ -21823,109 +21797,111 @@
         <v>109</v>
       </c>
       <c r="K163" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L163" s="8">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="M163" s="8">
+        <v>0.625</v>
+      </c>
+      <c r="N163" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A164" s="6">
+        <v>1171</v>
+      </c>
+      <c r="B164" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C164" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D164" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E164" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F164" s="7">
+        <v>1760</v>
+      </c>
+      <c r="G164" s="7">
+        <v>1</v>
+      </c>
+      <c r="H164" s="7">
+        <v>1</v>
+      </c>
+      <c r="I164" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J164" s="7">
+        <v>109</v>
+      </c>
+      <c r="K164" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="L163" s="8">
+      <c r="L164" s="8">
         <v>0.35416666666666669</v>
       </c>
-      <c r="M163" s="8">
+      <c r="M164" s="8">
         <v>0.42708333333333331</v>
       </c>
-      <c r="N163" s="9" t="s">
+      <c r="N164" s="9" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A164" s="10">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A165" s="10">
         <v>1171</v>
       </c>
-      <c r="B164" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C164" s="11" t="s">
+      <c r="B165" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C165" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="D164" s="11" t="s">
+      <c r="D165" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="E164" s="11" t="s">
+      <c r="E165" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F164" s="11">
+      <c r="F165" s="11">
         <v>1760</v>
       </c>
-      <c r="G164" s="11">
-        <v>1</v>
-      </c>
-      <c r="H164" s="11">
-        <v>1</v>
-      </c>
-      <c r="I164" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="J164" s="11">
+      <c r="G165" s="11">
+        <v>1</v>
+      </c>
+      <c r="H165" s="11">
+        <v>1</v>
+      </c>
+      <c r="I165" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J165" s="11">
         <v>111</v>
       </c>
-      <c r="K164" s="11" t="s">
+      <c r="K165" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="L164" s="12">
+      <c r="L165" s="12">
         <v>0.4375</v>
       </c>
-      <c r="M164" s="12">
+      <c r="M165" s="12">
         <v>0.47916666666666669</v>
       </c>
-      <c r="N164" s="13" t="s">
+      <c r="N165" s="13" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A165" s="2">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A166" s="2">
         <v>1171</v>
       </c>
-      <c r="B165" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C165" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D165" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="E165" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="F165" s="3">
-        <v>1014</v>
-      </c>
-      <c r="G165" s="3">
-        <v>2</v>
-      </c>
-      <c r="H165" s="3">
-        <v>1</v>
-      </c>
-      <c r="I165" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J165" s="3">
-        <v>132</v>
-      </c>
-      <c r="K165" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L165" s="4">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="M165" s="4">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="N165" s="5"/>
-    </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A166" s="6">
-        <v>1171</v>
-      </c>
-      <c r="B166" s="7" t="s">
+      <c r="B166" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C166" s="7" t="s">
@@ -21934,34 +21910,34 @@
       <c r="D166" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E166" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="F166" s="7">
-        <v>1014</v>
-      </c>
-      <c r="G166" s="7">
+      <c r="E166" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F166" s="3">
+        <v>1020</v>
+      </c>
+      <c r="G166" s="3">
         <v>2</v>
       </c>
-      <c r="H166" s="7">
+      <c r="H166" s="3">
         <v>1</v>
       </c>
       <c r="I166" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J166" s="7">
+        <v>24</v>
+      </c>
+      <c r="J166" s="3">
         <v>132</v>
       </c>
-      <c r="K166" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L166" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="M166" s="8">
-        <v>0.625</v>
-      </c>
-      <c r="N166" s="9"/>
+      <c r="K166" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L166" s="4">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="M166" s="4">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="N166" s="5"/>
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A167" s="6">
@@ -21977,10 +21953,10 @@
         <v>60</v>
       </c>
       <c r="E167" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F167" s="7">
-        <v>1014</v>
+        <v>1020</v>
       </c>
       <c r="G167" s="7">
         <v>2</v>
@@ -21989,13 +21965,13 @@
         <v>1</v>
       </c>
       <c r="I167" s="7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="J167" s="7">
         <v>132</v>
       </c>
       <c r="K167" s="7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L167" s="8">
         <v>0.5</v>
@@ -22019,10 +21995,10 @@
         <v>60</v>
       </c>
       <c r="E168" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F168" s="7">
-        <v>1014</v>
+        <v>1020</v>
       </c>
       <c r="G168" s="7">
         <v>2</v>
@@ -22031,19 +22007,19 @@
         <v>1</v>
       </c>
       <c r="I168" s="7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="J168" s="7">
         <v>132</v>
       </c>
       <c r="K168" s="7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="L168" s="8">
-        <v>0.35416666666666669</v>
+        <v>0.5</v>
       </c>
       <c r="M168" s="8">
-        <v>0.47916666666666669</v>
+        <v>0.625</v>
       </c>
       <c r="N168" s="9"/>
     </row>
@@ -22061,10 +22037,10 @@
         <v>60</v>
       </c>
       <c r="E169" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F169" s="7">
-        <v>1014</v>
+        <v>1020</v>
       </c>
       <c r="G169" s="7">
         <v>2</v>
@@ -22073,7 +22049,7 @@
         <v>1</v>
       </c>
       <c r="I169" s="7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="J169" s="7">
         <v>132</v>
@@ -22082,10 +22058,10 @@
         <v>26</v>
       </c>
       <c r="L169" s="8">
-        <v>0.5</v>
+        <v>0.35416666666666669</v>
       </c>
       <c r="M169" s="8">
-        <v>0.625</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="N169" s="9"/>
     </row>
@@ -22103,10 +22079,10 @@
         <v>60</v>
       </c>
       <c r="E170" s="7" t="s">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="F170" s="7">
-        <v>1760</v>
+        <v>1020</v>
       </c>
       <c r="G170" s="7">
         <v>2</v>
@@ -22118,20 +22094,18 @@
         <v>24</v>
       </c>
       <c r="J170" s="7">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="K170" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="L170" s="8">
         <v>0.5</v>
       </c>
       <c r="M170" s="8">
-        <v>0.57638888888888895</v>
-      </c>
-      <c r="N170" s="9" t="s">
-        <v>52</v>
-      </c>
+        <v>0.625</v>
+      </c>
+      <c r="N170" s="9"/>
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A171" s="6">
@@ -22162,16 +22136,16 @@
         <v>24</v>
       </c>
       <c r="J171" s="7">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K171" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L171" s="8">
-        <v>0.58333333333333337</v>
+        <v>0.5</v>
       </c>
       <c r="M171" s="8">
-        <v>0.625</v>
+        <v>0.57638888888888895</v>
       </c>
       <c r="N171" s="9" t="s">
         <v>52</v>
@@ -22191,10 +22165,10 @@
         <v>60</v>
       </c>
       <c r="E172" s="7" t="s">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="F172" s="7">
-        <v>1014</v>
+        <v>1760</v>
       </c>
       <c r="G172" s="7">
         <v>2</v>
@@ -22206,18 +22180,20 @@
         <v>24</v>
       </c>
       <c r="J172" s="7">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="K172" s="7" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="L172" s="8">
-        <v>0.35416666666666669</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="M172" s="8">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="N172" s="9"/>
+        <v>0.625</v>
+      </c>
+      <c r="N172" s="9" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A173" s="6">
@@ -22233,10 +22209,10 @@
         <v>60</v>
       </c>
       <c r="E173" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F173" s="7">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="G173" s="7">
         <v>2</v>
@@ -22251,7 +22227,7 @@
         <v>102</v>
       </c>
       <c r="K173" s="7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L173" s="8">
         <v>0.35416666666666669</v>
@@ -22275,10 +22251,10 @@
         <v>60</v>
       </c>
       <c r="E174" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F174" s="7">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="G174" s="7">
         <v>2</v>
@@ -22293,13 +22269,13 @@
         <v>102</v>
       </c>
       <c r="K174" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L174" s="8">
-        <v>0.5</v>
+        <v>0.35416666666666669</v>
       </c>
       <c r="M174" s="8">
-        <v>0.625</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="N174" s="9"/>
     </row>
@@ -22317,10 +22293,10 @@
         <v>60</v>
       </c>
       <c r="E175" s="7" t="s">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="F175" s="7">
-        <v>1220</v>
+        <v>1019</v>
       </c>
       <c r="G175" s="7">
         <v>2</v>
@@ -22332,112 +22308,112 @@
         <v>24</v>
       </c>
       <c r="J175" s="7">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="K175" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L175" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="M175" s="8">
+        <v>0.625</v>
+      </c>
+      <c r="N175" s="9"/>
+    </row>
+    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A176" s="6">
+        <v>1171</v>
+      </c>
+      <c r="B176" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C176" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D176" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E176" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F176" s="7">
+        <v>1220</v>
+      </c>
+      <c r="G176" s="7">
+        <v>2</v>
+      </c>
+      <c r="H176" s="7">
+        <v>1</v>
+      </c>
+      <c r="I176" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J176" s="7">
+        <v>111</v>
+      </c>
+      <c r="K176" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L176" s="8">
         <v>0.35416666666666669</v>
       </c>
-      <c r="M175" s="8">
+      <c r="M176" s="8">
         <v>0.42708333333333331</v>
       </c>
-      <c r="N175" s="9" t="s">
+      <c r="N176" s="9" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A176" s="10">
+    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A177" s="10">
         <v>1171</v>
       </c>
-      <c r="B176" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C176" s="11" t="s">
+      <c r="B177" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C177" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="D176" s="11" t="s">
+      <c r="D177" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="E176" s="11" t="s">
+      <c r="E177" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="F176" s="11">
+      <c r="F177" s="11">
         <v>1101</v>
       </c>
-      <c r="G176" s="11">
+      <c r="G177" s="11">
         <v>2</v>
       </c>
-      <c r="H176" s="11">
-        <v>1</v>
-      </c>
-      <c r="I176" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="J176" s="11">
+      <c r="H177" s="11">
+        <v>1</v>
+      </c>
+      <c r="I177" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J177" s="11">
         <v>109</v>
       </c>
-      <c r="K176" s="11" t="s">
+      <c r="K177" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="L176" s="12">
+      <c r="L177" s="12">
         <v>0.4375</v>
       </c>
-      <c r="M176" s="12">
+      <c r="M177" s="12">
         <v>0.47916666666666669</v>
       </c>
-      <c r="N176" s="13" t="s">
+      <c r="N177" s="13" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A177" s="2">
+    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A178" s="2">
         <v>1171</v>
       </c>
-      <c r="B177" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C177" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D177" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="E177" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="F177" s="3">
-        <v>1014</v>
-      </c>
-      <c r="G177" s="3">
-        <v>3</v>
-      </c>
-      <c r="H177" s="3">
-        <v>1</v>
-      </c>
-      <c r="I177" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J177" s="3">
-        <v>102</v>
-      </c>
-      <c r="K177" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L177" s="4">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="M177" s="4">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="N177" s="5"/>
-    </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A178" s="6">
-        <v>1171</v>
-      </c>
-      <c r="B178" s="7" t="s">
+      <c r="B178" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C178" s="7" t="s">
@@ -22446,34 +22422,34 @@
       <c r="D178" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E178" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="F178" s="7">
-        <v>1014</v>
-      </c>
-      <c r="G178" s="7">
+      <c r="E178" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F178" s="3">
+        <v>1019</v>
+      </c>
+      <c r="G178" s="3">
         <v>3</v>
       </c>
-      <c r="H178" s="7">
-        <v>1</v>
-      </c>
-      <c r="I178" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J178" s="7">
+      <c r="H178" s="3">
+        <v>1</v>
+      </c>
+      <c r="I178" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J178" s="3">
         <v>102</v>
       </c>
-      <c r="K178" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L178" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="M178" s="8">
-        <v>0.625</v>
-      </c>
-      <c r="N178" s="9"/>
+      <c r="K178" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L178" s="4">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="M178" s="4">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="N178" s="5"/>
     </row>
     <row r="179" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A179" s="6">
@@ -22489,10 +22465,10 @@
         <v>60</v>
       </c>
       <c r="E179" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F179" s="7">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="G179" s="7">
         <v>3</v>
@@ -22507,7 +22483,7 @@
         <v>102</v>
       </c>
       <c r="K179" s="7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L179" s="8">
         <v>0.5</v>
@@ -22531,10 +22507,10 @@
         <v>60</v>
       </c>
       <c r="E180" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F180" s="7">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="G180" s="7">
         <v>3</v>
@@ -22549,7 +22525,7 @@
         <v>102</v>
       </c>
       <c r="K180" s="7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="L180" s="8">
         <v>0.5</v>
@@ -22573,10 +22549,10 @@
         <v>60</v>
       </c>
       <c r="E181" s="7" t="s">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="F181" s="7">
-        <v>1220</v>
+        <v>1019</v>
       </c>
       <c r="G181" s="7">
         <v>3</v>
@@ -22588,10 +22564,10 @@
         <v>24</v>
       </c>
       <c r="J181" s="7">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="K181" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="L181" s="8">
         <v>0.5</v>
@@ -22599,9 +22575,7 @@
       <c r="M181" s="8">
         <v>0.625</v>
       </c>
-      <c r="N181" s="9" t="s">
-        <v>51</v>
-      </c>
+      <c r="N181" s="9"/>
     </row>
     <row r="182" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A182" s="6">
@@ -22617,10 +22591,10 @@
         <v>60</v>
       </c>
       <c r="E182" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F182" s="7">
-        <v>1101</v>
+        <v>1220</v>
       </c>
       <c r="G182" s="7">
         <v>3</v>
@@ -22632,13 +22606,13 @@
         <v>24</v>
       </c>
       <c r="J182" s="7">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K182" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L182" s="8">
-        <v>0.58333333333333337</v>
+        <v>0.5</v>
       </c>
       <c r="M182" s="8">
         <v>0.625</v>
@@ -22661,10 +22635,10 @@
         <v>60</v>
       </c>
       <c r="E183" s="7" t="s">
-        <v>90</v>
+        <v>46</v>
       </c>
       <c r="F183" s="7">
-        <v>1014</v>
+        <v>1101</v>
       </c>
       <c r="G183" s="7">
         <v>3</v>
@@ -22673,21 +22647,23 @@
         <v>1</v>
       </c>
       <c r="I183" s="7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="J183" s="7">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="K183" s="7" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="L183" s="8">
-        <v>0.35416666666666669</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="M183" s="8">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="N183" s="9"/>
+        <v>0.625</v>
+      </c>
+      <c r="N183" s="9" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="184" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A184" s="6">
@@ -22703,10 +22679,10 @@
         <v>60</v>
       </c>
       <c r="E184" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F184" s="7">
-        <v>1014</v>
+        <v>1020</v>
       </c>
       <c r="G184" s="7">
         <v>3</v>
@@ -22715,13 +22691,13 @@
         <v>1</v>
       </c>
       <c r="I184" s="7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="J184" s="7">
         <v>132</v>
       </c>
       <c r="K184" s="7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L184" s="8">
         <v>0.35416666666666669</v>
@@ -22745,10 +22721,10 @@
         <v>60</v>
       </c>
       <c r="E185" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F185" s="7">
-        <v>1014</v>
+        <v>1020</v>
       </c>
       <c r="G185" s="7">
         <v>3</v>
@@ -22757,13 +22733,13 @@
         <v>1</v>
       </c>
       <c r="I185" s="7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="J185" s="7">
         <v>132</v>
       </c>
       <c r="K185" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L185" s="8">
         <v>0.35416666666666669</v>
@@ -22787,10 +22763,10 @@
         <v>60</v>
       </c>
       <c r="E186" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F186" s="7">
-        <v>1014</v>
+        <v>1020</v>
       </c>
       <c r="G186" s="7">
         <v>3</v>
@@ -22799,7 +22775,7 @@
         <v>1</v>
       </c>
       <c r="I186" s="7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="J186" s="7">
         <v>132</v>
@@ -22808,10 +22784,10 @@
         <v>22</v>
       </c>
       <c r="L186" s="8">
-        <v>0.5</v>
+        <v>0.35416666666666669</v>
       </c>
       <c r="M186" s="8">
-        <v>0.625</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="N186" s="9"/>
     </row>
@@ -22829,10 +22805,10 @@
         <v>60</v>
       </c>
       <c r="E187" s="7" t="s">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="F187" s="7">
-        <v>1760</v>
+        <v>1020</v>
       </c>
       <c r="G187" s="7">
         <v>3</v>
@@ -22844,148 +22820,148 @@
         <v>24</v>
       </c>
       <c r="J187" s="7">
+        <v>132</v>
+      </c>
+      <c r="K187" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L187" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="M187" s="8">
+        <v>0.625</v>
+      </c>
+      <c r="N187" s="9"/>
+    </row>
+    <row r="188" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A188" s="6">
+        <v>1171</v>
+      </c>
+      <c r="B188" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C188" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D188" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E188" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F188" s="7">
+        <v>1760</v>
+      </c>
+      <c r="G188" s="7">
+        <v>3</v>
+      </c>
+      <c r="H188" s="7">
+        <v>1</v>
+      </c>
+      <c r="I188" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J188" s="7">
         <v>109</v>
       </c>
-      <c r="K187" s="7" t="s">
+      <c r="K188" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="L187" s="8">
+      <c r="L188" s="8">
         <v>0.35416666666666669</v>
       </c>
-      <c r="M187" s="8">
+      <c r="M188" s="8">
         <v>0.42708333333333331</v>
       </c>
-      <c r="N187" s="9" t="s">
+      <c r="N188" s="9" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A188" s="10">
+    <row r="189" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A189" s="10">
         <v>1171</v>
       </c>
-      <c r="B188" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C188" s="11" t="s">
+      <c r="B189" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C189" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="D188" s="11" t="s">
+      <c r="D189" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="E188" s="11" t="s">
+      <c r="E189" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F188" s="11">
+      <c r="F189" s="11">
         <v>1760</v>
       </c>
-      <c r="G188" s="11">
+      <c r="G189" s="11">
         <v>3</v>
       </c>
-      <c r="H188" s="11">
-        <v>1</v>
-      </c>
-      <c r="I188" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="J188" s="11">
+      <c r="H189" s="11">
+        <v>1</v>
+      </c>
+      <c r="I189" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J189" s="11">
         <v>111</v>
       </c>
-      <c r="K188" s="11" t="s">
+      <c r="K189" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="L188" s="12">
+      <c r="L189" s="12">
         <v>0.4375</v>
       </c>
-      <c r="M188" s="12">
+      <c r="M189" s="12">
         <v>0.47916666666666669</v>
       </c>
-      <c r="N188" s="13" t="s">
+      <c r="N189" s="13" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A189" s="2">
+    <row r="190" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A190" s="2">
         <v>1171</v>
       </c>
-      <c r="B189" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C189" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="D189" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="E189" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="F189" s="3">
-        <v>1017</v>
-      </c>
-      <c r="G189" s="3">
-        <v>1</v>
-      </c>
-      <c r="H189" s="3">
-        <v>1</v>
-      </c>
-      <c r="I189" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J189" s="3" t="s">
+      <c r="B190" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C190" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D190" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E190" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F190" s="3">
+        <v>1019</v>
+      </c>
+      <c r="G190" s="3">
+        <v>4</v>
+      </c>
+      <c r="H190" s="3">
+        <v>1</v>
+      </c>
+      <c r="I190" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J190" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="K189" s="3" t="s">
+      <c r="K190" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L189" s="4">
+      <c r="L190" s="4">
         <v>0.35416666666666669</v>
       </c>
-      <c r="M189" s="4">
+      <c r="M190" s="4">
         <v>0.47916666666666669</v>
       </c>
-      <c r="N189" s="5"/>
-    </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A190" s="6">
-        <v>1171</v>
-      </c>
-      <c r="B190" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C190" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="D190" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="E190" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="F190" s="7">
-        <v>1017</v>
-      </c>
-      <c r="G190" s="7">
-        <v>1</v>
-      </c>
-      <c r="H190" s="7">
-        <v>1</v>
-      </c>
-      <c r="I190" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J190" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="K190" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L190" s="8">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="M190" s="8">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="N190" s="9"/>
+      <c r="N190" s="5"/>
     </row>
     <row r="191" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A191" s="6">
@@ -22995,19 +22971,19 @@
         <v>14</v>
       </c>
       <c r="C191" s="7" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="D191" s="7" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="E191" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F191" s="7">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="G191" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H191" s="7">
         <v>1</v>
@@ -23019,7 +22995,7 @@
         <v>32</v>
       </c>
       <c r="K191" s="7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L191" s="8">
         <v>0.35416666666666669</v>
@@ -23037,19 +23013,19 @@
         <v>14</v>
       </c>
       <c r="C192" s="7" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="D192" s="7" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="E192" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F192" s="7">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="G192" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H192" s="7">
         <v>1</v>
@@ -23061,7 +23037,7 @@
         <v>32</v>
       </c>
       <c r="K192" s="7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="L192" s="8">
         <v>0.35416666666666669</v>
@@ -23079,37 +23055,37 @@
         <v>14</v>
       </c>
       <c r="C193" s="7" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="D193" s="7" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="E193" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F193" s="7">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="G193" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H193" s="7">
         <v>1</v>
       </c>
       <c r="I193" s="7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="J193" s="7" t="s">
         <v>32</v>
       </c>
       <c r="K193" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="L193" s="8">
-        <v>0.5</v>
+        <v>0.35416666666666669</v>
       </c>
       <c r="M193" s="8">
-        <v>0.6875</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="N193" s="9"/>
     </row>
@@ -23121,31 +23097,31 @@
         <v>14</v>
       </c>
       <c r="C194" s="7" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="D194" s="7" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="E194" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F194" s="7">
-        <v>1017</v>
+        <v>1020</v>
       </c>
       <c r="G194" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H194" s="7">
         <v>1</v>
       </c>
       <c r="I194" s="7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="J194" s="7" t="s">
         <v>32</v>
       </c>
       <c r="K194" s="7" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="L194" s="8">
         <v>0.5</v>
@@ -23163,31 +23139,31 @@
         <v>14</v>
       </c>
       <c r="C195" s="7" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="D195" s="7" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="E195" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F195" s="7">
-        <v>1017</v>
+        <v>1020</v>
       </c>
       <c r="G195" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H195" s="7">
         <v>1</v>
       </c>
       <c r="I195" s="7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="J195" s="7" t="s">
         <v>32</v>
       </c>
       <c r="K195" s="7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L195" s="8">
         <v>0.5</v>
@@ -23198,130 +23174,130 @@
       <c r="N195" s="9"/>
     </row>
     <row r="196" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A196" s="10">
+      <c r="A196" s="6">
         <v>1171</v>
       </c>
-      <c r="B196" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C196" s="11" t="s">
+      <c r="B196" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C196" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D196" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E196" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F196" s="7">
+        <v>1020</v>
+      </c>
+      <c r="G196" s="7">
+        <v>4</v>
+      </c>
+      <c r="H196" s="7">
+        <v>1</v>
+      </c>
+      <c r="I196" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J196" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K196" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L196" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="M196" s="8">
+        <v>0.6875</v>
+      </c>
+      <c r="N196" s="9"/>
+    </row>
+    <row r="197" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A197" s="10">
+        <v>1171</v>
+      </c>
+      <c r="B197" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C197" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D197" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E197" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="F197" s="11">
+        <v>1020</v>
+      </c>
+      <c r="G197" s="11">
+        <v>4</v>
+      </c>
+      <c r="H197" s="11">
+        <v>1</v>
+      </c>
+      <c r="I197" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J197" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="K197" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="L197" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="M197" s="12">
+        <v>0.6875</v>
+      </c>
+      <c r="N197" s="13"/>
+    </row>
+    <row r="198" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A198" s="2">
+        <v>1171</v>
+      </c>
+      <c r="B198" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C198" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D198" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D196" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="E196" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="F196" s="11">
-        <v>1017</v>
-      </c>
-      <c r="G196" s="11">
-        <v>1</v>
-      </c>
-      <c r="H196" s="11">
-        <v>1</v>
-      </c>
-      <c r="I196" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J196" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="K196" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="L196" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="M196" s="12">
-        <v>0.6875</v>
-      </c>
-      <c r="N196" s="13"/>
-    </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A197" s="2">
-        <v>1171</v>
-      </c>
-      <c r="B197" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C197" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D197" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E197" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="F197" s="3">
+      <c r="E198" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F198" s="3">
         <v>1097</v>
       </c>
-      <c r="G197" s="3">
-        <v>2</v>
-      </c>
-      <c r="H197" s="3">
-        <v>1</v>
-      </c>
-      <c r="I197" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J197" s="3">
+      <c r="G198" s="3">
+        <v>1</v>
+      </c>
+      <c r="H198" s="3">
+        <v>1</v>
+      </c>
+      <c r="I198" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J198" s="3">
         <v>101</v>
       </c>
-      <c r="K197" s="3" t="s">
+      <c r="K198" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L197" s="4">
+      <c r="L198" s="4">
         <v>0.33333333333333331</v>
       </c>
-      <c r="M197" s="4">
+      <c r="M198" s="4">
         <v>0.52083333333333337</v>
       </c>
-      <c r="N197" s="5"/>
-    </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A198" s="6">
-        <v>1171</v>
-      </c>
-      <c r="B198" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C198" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="D198" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="E198" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="F198" s="7">
-        <v>1097</v>
-      </c>
-      <c r="G198" s="7">
-        <v>2</v>
-      </c>
-      <c r="H198" s="7">
-        <v>1</v>
-      </c>
-      <c r="I198" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J198" s="7">
-        <v>101</v>
-      </c>
-      <c r="K198" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L198" s="8">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="M198" s="8">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="N198" s="9"/>
+      <c r="N198" s="5"/>
     </row>
     <row r="199" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A199" s="6">
@@ -23331,19 +23307,19 @@
         <v>14</v>
       </c>
       <c r="C199" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D199" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E199" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F199" s="7">
         <v>1097</v>
       </c>
       <c r="G199" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H199" s="7">
         <v>1</v>
@@ -23358,10 +23334,10 @@
         <v>25</v>
       </c>
       <c r="L199" s="8">
-        <v>0.54166666666666663</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="M199" s="8">
-        <v>0.77083333333333337</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="N199" s="9"/>
     </row>
@@ -23373,31 +23349,31 @@
         <v>14</v>
       </c>
       <c r="C200" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D200" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E200" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F200" s="7">
         <v>1097</v>
       </c>
       <c r="G200" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H200" s="7">
         <v>1</v>
       </c>
       <c r="I200" s="7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="J200" s="7">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="K200" s="7" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="L200" s="8">
         <v>0.54166666666666663</v>
@@ -23415,81 +23391,123 @@
         <v>14</v>
       </c>
       <c r="C201" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D201" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E201" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F201" s="7">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="G201" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H201" s="7">
         <v>1</v>
       </c>
       <c r="I201" s="7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="J201" s="7">
         <v>128</v>
       </c>
       <c r="K201" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L201" s="8">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="M201" s="8">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="N201" s="9"/>
+    </row>
+    <row r="202" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A202" s="6">
+        <v>1171</v>
+      </c>
+      <c r="B202" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C202" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D202" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E202" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F202" s="7">
+        <v>1098</v>
+      </c>
+      <c r="G202" s="7">
+        <v>1</v>
+      </c>
+      <c r="H202" s="7">
+        <v>1</v>
+      </c>
+      <c r="I202" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J202" s="7">
+        <v>128</v>
+      </c>
+      <c r="K202" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="L201" s="8">
+      <c r="L202" s="8">
         <v>0.33333333333333331</v>
       </c>
-      <c r="M201" s="8">
+      <c r="M202" s="8">
         <v>0.52083333333333337</v>
       </c>
-      <c r="N201" s="9"/>
-    </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A202" s="10">
+      <c r="N202" s="9"/>
+    </row>
+    <row r="203" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A203" s="10">
         <v>1171</v>
       </c>
-      <c r="B202" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C202" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="D202" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="E202" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="F202" s="11">
-        <v>1097</v>
-      </c>
-      <c r="G202" s="11">
-        <v>2</v>
-      </c>
-      <c r="H202" s="11">
-        <v>1</v>
-      </c>
-      <c r="I202" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J202" s="11">
+      <c r="B203" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C203" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D203" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E203" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="F203" s="11">
+        <v>1098</v>
+      </c>
+      <c r="G203" s="11">
+        <v>1</v>
+      </c>
+      <c r="H203" s="11">
+        <v>1</v>
+      </c>
+      <c r="I203" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J203" s="11">
         <v>128</v>
       </c>
-      <c r="K202" s="11" t="s">
+      <c r="K203" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="L202" s="12">
+      <c r="L203" s="12">
         <v>0.54166666666666663</v>
       </c>
-      <c r="M202" s="12">
+      <c r="M203" s="12">
         <v>0.77083333333333337</v>
       </c>
-      <c r="N202" s="13"/>
+      <c r="N203" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
